--- a/Data_Learning_Prediction/FeatureSelection_CHN_GBR_841850_sqrt.xlsx
+++ b/Data_Learning_Prediction/FeatureSelection_CHN_GBR_841850_sqrt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7632" windowHeight="10548" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14784" windowHeight="10668" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -101,391 +101,391 @@
     <t>_1236_12</t>
   </si>
   <si>
-    <t>[ 2 24  0  1 27 18 23 19  6  5  9 22 14  4  8 26 16 25  7 15 11 17 13 20
- 12 10 21  3]</t>
-  </si>
-  <si>
-    <t>[30  0  2 52 55 29  1 24 27 28 18 34 35  5 32 47 43  6 39 54 22 51 37 46
-  9 23 11  8  7 41 19 26 17 33 15 16 14 31 38 20 13  4 40 21 50 36  3 25
- 44 53 45 12 10 48 42 49]</t>
-  </si>
-  <si>
-    <t>[30  2  0 29  1 80 55 58 56 27 79 52 28 83 24 34 23 35  6 75 63  5 39 18
- 57 37 22 43 54 51 60  9 32 69 47 65 11 74 17  8 46 61  7 73 19 21 41 33
- 15 38 26 62 20 25 82 16 36 64 72 40 13 59  4 50 31 68  3 78 71 67 14 10
- 66 81 12 44 45 77 70 76 48 42 53 49]</t>
-  </si>
-  <si>
-    <t>[ 2 24 27  1  0 23 15  6 26  7 19 18 11  9 13  4 25 22  5 10 12 14 16  8
- 17 20  3 21]</t>
-  </si>
-  <si>
-    <t>[ 2 52  1 27 55 24 51 28  0 30  6 23 29 15 47  7 11  9 32 26 18 35 41 46
- 19 37  4 13 43 33 34  5 36 54 12 45 50 22 16 25  8 10 53 44 39 31 40 49
- 38  3 14 48 17 21 42 20]</t>
-  </si>
-  <si>
-    <t>[ 2  1 52 80 27 30 79 83 55 28  0 24 51 60 65 75 57  6 15  7 29  4 13 23
- 19 64 11 46 41 26 32 18 58 63 61 33 43 56 35  9 62  5 45 47 37 17 12 59
- 54 71 10 73 78  8 68 16 53 22 44 81 69 38  3 82 77 25 67 50 40 34 66 36
- 21 72 31 14 74 39 42 70 76 49 20 48]</t>
-  </si>
-  <si>
-    <t>[24 23  2 27  0 19 15  1 13 18  7 26 17  5  4 16  9  6 22 25 11 12  8 14
-  3 21 20 10]</t>
-  </si>
-  <si>
-    <t>[52 24  2 51  0 23 55 27 29 47 37 32 13 30  1 15 18 36  4 35 33 17  5 19
- 43 28 16 39 26  7 34 44 25 41  9 50 45 11 54 53 10 31 49 12  3 22 40 38
- 46  6 42  8 14 48 21 20]</t>
-  </si>
-  <si>
-    <t>[83 79  2  0 24 29 23 51 55 80 52 27 64 37 75 47 30 32 13  1  4 18 15 36
- 35 33 28  5 17 16 19 43 78 65  7 56 71 58 26 77  9 57 39 25 31 60 63 59
- 44 34 66 81 73 41 49 67 40 22 12  6 46 50 61 70 53 11 62 38 10 82 14 54
-  3 21  8 69 68 45 72 74 76 42 48 20]</t>
-  </si>
-  <si>
-    <t>[24 23 27  2  1 19  9  4 13 15  0 11  7  8 16  5 18 17  3 22  6 26 21 20
- 25 12 14 10]</t>
-  </si>
-  <si>
-    <t>[55 51 24 52 23 27  1  2 19 47  4  9 36 13 15 30 43  0 50  7  5 16 18  8
- 11 17 49 35 39 53 37 38 32 45 31 28 22  6  3 29 26 10 44 33 21 34 12 14
- 25 40 54 42 46 48 41 20]</t>
-  </si>
-  <si>
-    <t>[79 55 51  2 24  1 52 83 23  9 27 80 19 47 36  4 78 59 30 13 15 43 11  0
- 77  7  5 58  8 16 63 56 39 17 64 81 45 66 28 50 31 60  6 68 61 35 38 49
- 75 22 67 57 29 37 21 10 18 32 12  3 69 33 71 53 65 41 74 62 26 72 34 73
- 14 54 44 40 82 70 46 25 20 42 48 76]</t>
-  </si>
-  <si>
-    <t>[27 23 24 19  8 15  2 22 13 16 25 21  9 17  1  7  4 18 11  0  3  5 10  6
- 14 26 12 20]</t>
-  </si>
-  <si>
-    <t>[27 51 23 24 19 55 52  8 50  2 31 15 28 30 49 35 13 17 16 11 41 43 53 22
- 36 38 10  9 39 32 40  7 45 33 47 29 25  4 12  0 21  5 34  1 18  6  3 46
- 54 42 37 44 26 20 14 48]</t>
-  </si>
-  <si>
-    <t>[51 79 27 23 19 80 24  8 78 77 55 52 31  2 15 83 60 59 50 67 28 58 65 17
- 61 11 66 35 70 57 16 47 74 41 32 36 40 49 64 81 10  3 22 62 12  9  4 33
- 53 13  0 30 21  7  6 69 25 39  5 34 68 38 63 45 44  1 43 37 46 56 18 82
- 71 14 42 73 29 26 76 75 54 48 20 72]</t>
-  </si>
-  <si>
-    <t>[23 24 27 19 22  3 15 13  2  0  7  8 21 12 17 10  4 16  5 11 25  6 18 14
+    <t>[24  2  0 27  1 18 23  5  6 19  9 14 22  8 26  7 11 25 15  4 16 13 17 21
+ 20 12  3 10]</t>
+  </si>
+  <si>
+    <t>[30  0  2 52 29 55  1 27 24 28 35 34 18  6 43 51  5 54 39 47 37 46 22 32
+  9 19 11 41  7  8 23 15 26 33 25 40 21 14 36  4 17 38 31 10 16 13  3 20
+ 53 12 44 45 48 50 42 49]</t>
+  </si>
+  <si>
+    <t>[30  0  2 29 80  1 55 56 52 58 27 79 83 24 28 34  5 18 75 35  6 39 57 63
+ 43 23 22 32 37 60 54 69 74  9 47  8 11 46 41 51 65 26  7 40 19 61 33 17
+ 62 36 64 78 82  4 73 50 20 72 71 38 13 14 15 59 21 10 25 31 12 76 68 70
+ 48  3 77 67 53 16 66 42 45 81 44 49]</t>
+  </si>
+  <si>
+    <t>[ 2 24  1 27  0 15  6 23 18  7 26 11 19  9  4 13 25 12  5 14 10  8 17 16
+  3 22 20 21]</t>
+  </si>
+  <si>
+    <t>[ 2 52  1 27 30 24 55 51 28  0  6  7 15 29 47 23 11 26 32  9 18 35 19 46
+ 13 37 41 33 43  4 34  5 54 36 12 10 22  8 45 50 53 16 44 17  3 39 25 40
+ 38 31 14 42 20 21 48 49]</t>
+  </si>
+  <si>
+    <t>[ 2  1 30 80 52 27 79  0 28 51 24 57 60 65 55 83 75  6 23 15  7 46 64 26
+ 32 13 29 18 11 58 19 41 63 61  4 37 35 33 71  9 62 56  5 68 45 53 43 67
+  8 47 78 22 54 50 12 44 59 16 77 66  3 17 10 25 69 74 31 73 14 38 81 21
+ 72 39 40 70 82 36 34 42 76 49 20 48]</t>
+  </si>
+  <si>
+    <t>[24 23  2 27  0  1 15 13 19 18  7 26  4 16  5  9 17 25 11 12 22  6  8 20
+ 14 10 21  3]</t>
+  </si>
+  <si>
+    <t>[24 52  2 23  0 51 27 29 55 47 37 13 30 32  1 15 18  4 36 35 43 33 28 17
+  5 16 19 39  7 26  9 34 49 44 50 25 45 41 53 12 31 10  8 54  6 21 38 40
+ 48  3 22 14 11 42 46 20]</t>
+  </si>
+  <si>
+    <t>[83 79  2 24  0 52 27 55 29 23 80 51 37 64 32 47 13 30 75  1 18 15  4 36
+ 28 35 33 19 16 17  5  7 65 71 39  9 59 56 26 63 78 60 66 58 34 73 25 41
+ 77 43  6 44 50 81 31 11 61 70 67 22 57 45 62 10 40 54 21  3  8 12 53 82
+ 38 14 49 68 46 72 74 42 69 76 48 20]</t>
+  </si>
+  <si>
+    <t>[24 23 27  1 19  2  9 13  4 15 11  0  8  7 16 17  5 18 22 26 25 21  3  6
+ 20 14 10 12]</t>
+  </si>
+  <si>
+    <t>[55 51 52 24 23 27  1  2  9 47 19 36  4 13 15 30  7 43  0 18 11  5 16  8
+ 50 49  6 45 53 32 37 35 28  3 22 17 38 39 26 31 12 29 21 44 34 25 41 33
+ 10 42 54 40 14 46 48 20]</t>
+  </si>
+  <si>
+    <t>[79 55 51 24 52  2  1 23 27 19 47  9 83 36 80 78  4 59 13 15 30 43  0  7
+ 11  5 77 58  8 63 39 68 16 45 17 56 18 28 31 66 50 35  6 29 32 12 81 61
+ 37 69 67 49 71 73 21 64 60  3 26 34 38 22 53 40 10 65 33 75 62 70 44 74
+ 25 57 72 82 41 54 14 42 20 46 48 76]</t>
+  </si>
+  <si>
+    <t>[27 23 24 19  8 15  2 22 17 16 13 25 21  9 11  4  1  7 18  0 10  3  6 12
+  5 14 20 26]</t>
+  </si>
+  <si>
+    <t>[51 27 23 24 19 55  8 50 52  2 31 15 28 49 35 17 30 16 11 40 43 22 13  1
+ 41 32  9 47 29  4 33 53 10 46  0 36  7 21 38 25  5  3 39 34 42 44 45 12
+ 54 18  6 37 14 26 20 48]</t>
+  </si>
+  <si>
+    <t>[51 79 23 27 19 80 24 55  8  2 52 78 31 77 60 15 59 50 28 30 83 67 65 17
+ 58 61 11 16 74 64 47 49 35 32 66 41 36 70  0 62 33  9 57 69 81 10 40  4
+ 22 25 43  5 13  7 34 44 73 38  6  3 29 45 39  1 56 63 53 68 12 37 71 46
+ 82 54 26 72 18 21 14 42 76 20 75 48]</t>
+  </si>
+  <si>
+    <t>[23 24 27 19 22  3 15 13  0 21  2  8  7 12 17 11 16 25 10  4  6 18  5 14
   1 26  9 20]</t>
   </si>
   <si>
-    <t>[51 23 52 27 24 19 50 49  3 55 15 31 39 13 32 22  2  0  4 37 33 12 46 30
-  7 29 21  8 41 42 38 11 10 36 17  5 18 43 34  6 28 16 53 40 47 35 25 45
-  9  1 54 14 26 48 44 20]</t>
-  </si>
-  <si>
-    <t>[23 51 79 83 80 52 27 19 24 59 78 50  3 68 49 55 15 61 57  2 31 32 13 77
- 39 22  0 33 70 37 67 12  8 60 29  4  7 30 46 41 18 21 17 10 38 36 63 11
- 62 56  6 34  5 42 64 74 69 40 65 28 53 66  1 43 47 82  9 58 16 54 71 45
- 35 73 76 75 25 14 44 81 48 72 26 20]</t>
-  </si>
-  <si>
-    <t>[27 24  1 20  3 23 22  2  4 10  0 12  9  6  5 26 14 13 21 16 15  8  7 25
- 17 11 19 18]</t>
-  </si>
-  <si>
-    <t>[ 30 107   2   0  29  58   1  27  56  80  55  79  28  83  52  87  34 108
-   5 111   6  18  35  75  39  32  37  22  92 106  63  24  43  57  74  84
- 102  69   9  23  11  54  91 101  47  65  90  96  61 105  64  19  46   8
-  62   7  60  88  73  51  94  26  41  40  82  17  78  14  33  89   4  15
-  16  13  71  95  98  93  67  10 103 104  38  12  36  72  21 109  68  31
-  25   3  59  45  50  66  97  44  85  86  20  53  99  49  77 110  81  76
-  70  48  42 100]</t>
-  </si>
-  <si>
-    <t>[ 30   0   2  29 163 139 135   1  58  28  56 120  93 108  85  88  27  55
- 111  34  80  52 167  79 136 103  83 143  24 164  18   5  35  92   6 162
- 107  23 131  69  47  57  89  54  39  63  74  91 140  43   9 112  22  60
-  51   8  37 158  86  19  75  32 157 148  11 147 119 146  26 161  71  65
-  84  90   4 116  41 129 145 152  73  61  46  33 122 134 150  72   7  82
- 133  13 121  14 141 117  17  97  50  40  16  38  15 124 159  64  36  49
-  10 154 144  81 115 149  87 105  96  99 151 127 114  31 113  20  25  62
-  44  59  67 101  95 165  45  21 137 118   3  68  94 106  12  53  66 166
-  77  78 110 142 109 160 138  70 100 123  98 153 126  42 102 132 130 125
-  48 155  76 104 156 128]</t>
-  </si>
-  <si>
-    <t>[107 142  30   2   0 112 114  29 141  56  80  27  55 167  58   1 113  79
- 139 140  83 111  87  28 108  63  75 146 106  57  52 164  32  92 117  74
-  34 135 102 136  84   5  18 118  91  43 130  35 151   6 155 144 101  60
-  23 147 105  65  89  90  94 149 159  22 121  24  54  69  96  39 103  47
- 134  61  73 166  88  37 158  93   9  82  95  98  46 138  64  97  51 163
-  11  78 129  26 116  62 153 123 152  41 131  71  16   8 128  67 109  66
-  59 137  68  17 120  19  15   7 145 127 148  40 104  14  86  85  99  36
-   4 110  81  72  25 132 150  31  20 125 119 156 115  77  33 143 126  21
-  70  12  45  38 162  76  10 122 165 133 157  50 100   3  44  13  53  42
- 160 124  49 161  48 154]</t>
-  </si>
-  <si>
-    <t>[2.5032416 2.2459001 3.1938898 0.1147353 0.1913891 0.2612537 0.2898239
- 0.1692385 0.1886897 0.2272631 0.1185087 0.1546677 0.1302304 0.1510961
- 0.2007835 0.167771  0.1829777 0.1529486 0.5169078 0.2901444 0.1439411
- 0.1157452 0.2165641 0.4403996 2.7934829 0.1778605 0.1867028 1.5659252]</t>
-  </si>
-  <si>
-    <t>[3.762823  1.6598343 2.8137006 0.1109727 0.1245028 0.3555483 0.2996762
- 0.1874141 0.1880948 0.2233122 0.0861006 0.2132453 0.0930611 0.129373
- 0.1360463 0.1438435 0.136704  0.1545933 0.4360279 0.1750276 0.1327372
- 0.1204923 0.2818403 0.2221177 1.5438511 0.1063622 0.1630771 1.5168368
- 0.4997747 2.0930858 3.994695  0.1356219 0.3531797 0.151887  0.4335362
- 0.4048815 0.1111109 0.2582267 0.1336314 0.2899341 0.1227164 0.1815319
- 0.0692884 0.3140875 0.1052065 0.0956156 0.2573679 0.3357754 0.0858982
- 0.0502499 0.1138482 0.2769028 2.355903  0.0963258 0.2868888 2.2233277]</t>
-  </si>
-  <si>
-    <t>[4.1915347 1.7061229 5.0979863 0.0965664 0.1056123 0.3440081 0.3556807
- 0.1563456 0.1629119 0.2243406 0.0846535 0.1911899 0.0711425 0.1086165
- 0.087084  0.1345729 0.1193152 0.1704543 0.3424141 0.1519337 0.1246879
- 0.139484  0.2798397 0.4322599 0.6300171 0.1244453 0.1280863 1.0987143
- 0.8226729 2.3520577 5.6223113 0.1042362 0.221045  0.1374643 0.5050025
- 0.404204  0.1192623 0.2845676 0.1309877 0.343153  0.112737  0.1384264
- 0.0589612 0.2499199 0.0665967 0.06569   0.1601879 0.2019139 0.0605735
- 0.0508568 0.1050761 0.2356075 0.8766306 0.0528278 0.2478224 1.4225712
- 1.2183293 0.3320514 1.3089724 0.1067032 0.2346709 0.1599731 0.125994
- 0.3447491 0.1139727 0.1935248 0.083695  0.0884608 0.0990743 0.2110263
- 0.0623094 0.0914287 0.1138626 0.1520397 0.1890761 0.3460151 0.0607481
- 0.0654402 0.0931913 1.0224644 1.6338736 0.0775319 0.1216555 0.7549768]</t>
-  </si>
-  <si>
-    <t>[0.7869113 2.062887  4.4532025 0.1139098 0.2407518 0.1736149 0.42776
- 0.3807446 0.1515853 0.2847626 0.1624345 0.3314691 0.1622528 0.2516093
- 0.1579428 0.4902959 0.1527756 0.1428572 0.3438107 0.3633898 0.1211744
- 0.1083552 0.1742697 0.5599995 2.9822084 0.2037748 0.3820413 2.2302302]</t>
-  </si>
-  <si>
-    <t>[1.1836523 2.5766967 5.0555011 0.0981902 0.2147677 0.177249  0.6596151
- 0.3977776 0.1310576 0.3339786 0.1248399 0.3545961 0.1594929 0.2034938
- 0.0943285 0.4443916 0.1406447 0.0904915 0.2888206 0.2419763 0.069184
- 0.0889007 0.142659  0.5172778 1.5635391 0.1318215 0.2891757 2.2023712
- 1.2009488 0.4715672 1.1657249 0.106221  0.2980869 0.1941863 0.1804425
- 0.2866807 0.1694996 0.2259637 0.1001502 0.1139498 0.1022766 0.2506358
- 0.0718621 0.1992211 0.1143327 0.153046  0.2483055 0.4040043 0.0911725
- 0.1018981 0.1448705 1.42896   2.7867441 0.1243106 0.1673958 1.6218925]</t>
-  </si>
-  <si>
-    <t>[1.4318581 4.024585  8.6029528 0.1101852 0.37768   0.1877975 0.6788105
- 0.3972602 0.1371155 0.2062958 0.1413728 0.3496428 0.1535216 0.3719716
- 0.0913213 0.533682  0.1300763 0.1542005 0.3092483 0.3646537 0.0541893
- 0.0944439 0.1225106 0.3672157 1.4122539 0.1063957 0.3388631 1.9917211
- 1.5791666 0.3830427 1.9764639 0.0926905 0.3116749 0.2243889 0.0981724
- 0.2109654 0.0957116 0.1608171 0.1123442 0.082521  0.0983034 0.3428855
- 0.0739144 0.2136534 0.1193828 0.1795944 0.3430286 0.161153  0.0470433
- 0.0671124 0.1024799 1.3892484 2.1442378 0.1295158 0.1475747 1.6001741
- 0.2116098 0.7848468 0.2711908 0.1501416 1.0906892 0.2312265 0.1899618
- 0.2379814 0.3527869 1.0693184 0.0967894 0.1037682 0.1366503 0.1142066
- 0.0683742 0.1426131 0.0937363 0.1375391 0.0845797 0.9955962 0.0672368
- 0.1084512 0.1374624 1.8236207 2.0114709 0.1149305 0.1101674 1.6466608]</t>
-  </si>
-  <si>
-    <t>[0.9677574 0.4357904 1.5980079 0.1098331 0.1920252 0.1969092 0.1440981
- 0.211962  0.1245015 0.1589724 0.1045627 0.1368873 0.1270155 0.3742499
- 0.123942  0.4569345 0.1740304 0.2034559 0.3046418 0.4571515 0.1062632
- 0.1096895 0.1414053 1.6560452 4.0917041 0.1383538 0.2104741 1.556695 ]</t>
-  </si>
-  <si>
-    <t>[2.041022  0.5555316 2.9313505 0.1068836 0.2869513 0.2409762 0.0862934
- 0.1679123 0.0817933 0.1489156 0.1154679 0.1234536 0.1096672 0.7336595
- 0.0803962 0.4988194 0.2051416 0.2421179 0.4416869 0.2260913 0.0688702
- 0.0706268 0.1065105 1.8399962 3.0205829 0.1607599 0.1797353 1.3583535
- 0.2186986 1.1496298 0.6138932 0.1121351 0.8527522 0.2544832 0.1669307
- 0.2717821 0.3248747 0.9781813 0.0930689 0.1824046 0.0950786 0.1517411
- 0.0853367 0.2253389 0.1648148 0.1294068 0.0919453 1.0209512 0.078081
- 0.1097492 0.1375024 2.5825859 3.3647474 0.1201058 0.1226179 1.6111953]</t>
-  </si>
-  <si>
-    <t>[2.7750176 0.6952313 3.5895188 0.0893824 0.5107873 0.2604076 0.1163906
- 0.2184141 0.0880073 0.171365  0.1012628 0.1030434 0.1166514 0.8251294
- 0.0935402 0.4415298 0.2393014 0.2425083 0.4737919 0.2340664 0.0401143
- 0.0881924 0.1175005 1.509519  2.4464966 0.1566422 0.1768977 1.1357626
- 0.2681863 1.5103275 0.8897134 0.1558456 0.8550409 0.2811867 0.1419754
- 0.2968623 0.3090993 1.0519459 0.1023711 0.159051  0.1204374 0.1223424
- 0.0629902 0.2310804 0.1441749 0.0760572 0.1131058 0.8996943 0.052856
- 0.1219077 0.1125115 1.3988673 1.2536512 0.1035064 0.0912413 1.3910649
- 0.1988739 0.1591242 0.1921916 0.1466144 0.1524567 0.1104256 0.1025688
- 0.147957  1.055817  0.2215037 0.1407325 0.1204463 0.0814494 0.0860573
- 0.1045312 0.1931203 0.0748453 0.1242372 0.0726386 0.9127611 0.0716814
- 0.1730978 0.2260789 4.695066  1.3279478 0.1372824 0.093643  5.7932117]</t>
-  </si>
-  <si>
-    <t>[0.3022152 1.1243741 1.1708016 0.1550885 0.6761832 0.2155963 0.1492336
- 0.2567797 0.2553312 0.6924952 0.1076249 0.2908033 0.1224884 0.5062552
- 0.1167211 0.4791532 0.2249828 0.1799239 0.1930553 0.955949  0.1262941
- 0.1362293 0.1514128 2.7819484 4.7140028 0.1262672 0.1472539 1.9266548]</t>
-  </si>
-  <si>
-    <t>[0.2686171 1.4854619 1.0665198 0.1281389 0.8642075 0.2393372 0.1411179
- 0.253287  0.1964217 0.8505933 0.1164258 0.1841333 0.1040986 0.6051613
- 0.0994022 0.5576489 0.2225417 0.1795054 0.2027618 1.0600459 0.0645318
- 0.1112885 0.1417248 1.9704057 2.8921263 0.097677  0.1177441 1.5534287
- 0.1445941 0.121022  0.4600909 0.146897  0.1491768 0.1120384 0.1089109
- 0.1711542 0.7729894 0.15735   0.155856  0.1689905 0.089042  0.0801989
- 0.0865084 0.3714025 0.1144832 0.1479425 0.0854689 0.999339  0.0825365
- 0.17787   0.2566622 4.1082698 2.0542224 0.158044  0.0865171 6.0462994]</t>
-  </si>
-  <si>
-    <t>[0.285197  1.5192694 1.8424122 0.091906  0.6688626 0.2149732 0.1258213
- 0.226293  0.1941747 0.9796807 0.0971652 0.3218839 0.0924386 0.4580982
- 0.0697086 0.4505428 0.1935788 0.1623468 0.0964812 0.8767032 0.0581754
- 0.0988921 0.1061587 1.1210834 1.6851778 0.0606844 0.0776393 0.9500903
- 0.1386974 0.1029676 0.4804765 0.1341287 0.0943016 0.0905935 0.0743557
- 0.1168198 0.8344963 0.1019041 0.1165589 0.1625425 0.0650339 0.081076
- 0.0505845 0.3291194 0.0665093 0.156352  0.0610762 0.8409189 0.0498719
- 0.1113553 0.1379953 2.5055461 1.442723  0.0863143 0.0672907 4.8554789
- 0.1822902 0.1040236 0.2094566 0.6163806 0.1265431 0.1174119 0.0785222
- 0.1931219 0.1594286 0.086217  0.1493726 0.1040923 0.1232303 0.0915246
- 0.0616668 0.0902225 0.0765085 0.0702976 0.0788911 0.1090579 0.0422924
- 0.2780639 0.6651728 6.7313015 0.9262143 0.1586642 0.0632623 1.4024917]</t>
-  </si>
-  <si>
-    <t>[0.1521472 0.1800651 0.5400303 0.1514469 0.1726853 0.1352255 0.1309924
- 0.1799178 0.6820881 0.1991287 0.1336917 0.153847  0.1092499 0.2386173
- 0.1205908 0.5964752 0.2320653 0.1902215 0.155463  1.1861128 0.0977523
- 0.2059362 0.2440274 3.7492402 2.7581776 0.2090656 0.1169212 4.2719569]</t>
-  </si>
-  <si>
-    <t>[0.1307844 0.127312  0.7867892 0.1131497 0.136343  0.1282087 0.113351
- 0.1579893 0.9303772 0.1687379 0.1706249 0.2110299 0.1310627 0.2518285
- 0.0680148 0.5213311 0.2116777 0.2307279 0.1259502 1.7925638 0.0681553
- 0.130015  0.1798968 3.6662491 2.1047825 0.1393047 0.0864086 6.3439007
- 0.3414835 0.1480903 0.3077234 0.6638618 0.1669656 0.1485574 0.127936
- 0.2577879 0.1764745 0.095935  0.1717604 0.1679679 0.1633994 0.1959676
- 0.1022703 0.190066  0.0909843 0.1527871 0.1093113 0.1482083 0.0675439
- 0.2784724 0.9066021 5.8466688 1.0421333 0.180977  0.1027837 1.2718452]</t>
-  </si>
-  <si>
-    <t>[0.1373404 0.1020549 0.7456879 0.151576  0.140969  0.1225454 0.1309637
- 0.1321739 1.2530804 0.1422821 0.1531718 0.251329  0.1429677 0.1382419
- 0.0775053 0.6488024 0.2151227 0.2796912 0.0905153 2.4782916 0.0477855
- 0.1328571 0.15132   4.2861406 1.7367639 0.124486  0.0681116 5.8978529
- 0.332915  0.0731749 0.1356059 0.8487816 0.1862328 0.1393488 0.1217237
- 0.2350263 0.178684  0.0947982 0.1201546 0.1233059 0.1753817 0.1979121
- 0.0750406 0.1018281 0.1054454 0.1148233 0.0947591 0.2150449 0.0507187
- 0.1752114 0.4194562 7.7878044 0.9265037 0.1382974 0.0612937 0.9435105
- 0.0946899 0.216713  0.3009406 0.4360461 0.4654282 0.2738773 0.151083
- 0.1190713 0.1641501 0.2802245 0.243885  0.3901167 0.121437  0.1289201
- 0.2229398 0.0854895 0.0400922 0.074161  0.2020078 0.0624361 0.0654632
- 0.9568518 1.0242139 6.6443834 2.2691133 0.1610367 0.087858  0.48964  ]</t>
-  </si>
-  <si>
-    <t>[0.2685613 0.120283  0.2751148 0.5272257 0.1801214 0.1754347 0.1640398
- 0.2238055 0.2222022 0.1068543 0.1840919 0.1747689 0.2024324 0.3498598
- 0.1494162 0.4459803 0.1800708 0.1842946 0.1611633 0.6804637 0.0839626
- 0.2028684 0.6385388 7.0753987 1.8383158 0.167412  0.1176775 1.3276348]</t>
-  </si>
-  <si>
-    <t>[0.2725987 0.0886323 0.3169022 0.6071964 0.2572617 0.1509957 0.1258685
- 0.204448  0.1929021 0.0914262 0.1551087 0.1553743 0.2250602 0.3385943
- 0.0862827 0.4651478 0.1154265 0.1521043 0.1422485 0.9381266 0.0441297
- 0.1960065 0.31884   6.1574449 0.9828367 0.0977514 0.0686109 1.2844057
- 0.121629  0.2026253 0.2139419 0.4122118 0.3355483 0.2367787 0.1322373
- 0.0996739 0.1534842 0.252297  0.1811422 0.377301  0.1082732 0.1917801
- 0.1853145 0.1399    0.0494612 0.0921465 0.2210931 0.1073634 0.0518949
- 0.6422389 0.6871766 6.1595759 2.4367471 0.1112737 0.0867597 0.5555756]</t>
-  </si>
-  <si>
-    <t>[0.3460339 0.1139645 0.5463629 0.6141731 0.2228042 0.1417802 0.149308
- 0.2220216 0.2403203 0.1039879 0.1838491 0.16291   0.2514615 0.4624374
- 0.0611777 0.5642205 0.0934471 0.188363  0.2070417 1.0510562 0.0379516
- 0.202069  0.3905014 8.4830372 0.8323399 0.0700672 0.0413268 1.1133603
- 0.1168438 0.229352  0.2195239 0.5318548 0.5018307 0.3109413 0.1487335
- 0.0845495 0.1738586 0.2885608 0.1790342 0.4517377 0.1295818 0.2165474
- 0.141014  0.1119159 0.0520931 0.0856433 0.2192657 0.1049382 0.0485826
- 0.5693191 0.6181547 5.4185534 1.3203097 0.1165456 0.0912203 0.5683496
- 0.1539929 0.5485035 0.0958517 0.7065313 0.2399931 0.5612186 0.1569426
- 0.1652416 0.137919  0.1232724 0.1153797 0.2840797 0.5848678 0.1325944
- 0.3019822 0.0899505 0.0448836 0.0771598 0.1374181 0.0707201 0.0768719
- 0.4539075 0.6414786 3.6161252 2.4080478 0.0496773 0.1044118 3.5274112]</t>
-  </si>
-  <si>
-    <t>[0.2794037 1.9684776 0.4365341 1.0789992 0.3417602 0.2001197 0.2088055
- 0.1563176 0.1573392 0.2299994 0.3263057 0.1235528 0.2622124 0.1701875
- 0.1792191 0.1578675 0.1608423 0.1313656 0.1063991 0.115309  1.1894661
- 0.1625665 0.472706  0.5998775 2.6675075 0.1370202 0.1927843 4.9580398]</t>
-  </si>
-  <si>
-    <t>[5.4983399 1.9453478 5.8126131 0.0959451 0.1333243 0.4775102 0.4372415
- 0.1658029 0.1692955 0.2700639 0.1160723 0.2512853 0.109732  0.1283865
- 0.144334  0.1315837 0.1303932 0.1487031 0.43272   0.1710593 0.0723333
- 0.1028848 0.3444493 0.2617508 0.3074862 0.0975597 0.1544296 1.7387264
- 0.996849  3.8042332 7.0560789 0.0993408 0.374374  0.1442637 0.6072019
- 0.4043034 0.108295  0.3486542 0.1125521 0.3777712 0.1501862 0.1511895
- 0.0507613 0.3012522 0.0859586 0.0944527 0.1701845 0.2141265 0.0512016
- 0.0675939 0.0908587 0.160333  0.698775  0.0722374 0.2488222 1.2498407
- 1.7083034 0.2971778 1.9929311 0.0944996 0.1649897 0.1946989 0.16665
- 0.3292692 0.1843411 0.2125168 0.0901236 0.1208141 0.101646  0.275151
- 0.0526151 0.1269119 0.1059766 0.162368  0.2937019 0.3784059 0.0530174
- 0.0667451 0.146257  1.0714166 1.3587076 0.0611415 0.1490902 0.9436181
- 0.2892797 0.0829158 0.0817287 0.6119613 0.1625435 0.1391679 0.209522
- 0.2237501 0.3433014 0.1226124 0.159335  0.1255763 0.2051921 0.0883034
- 0.1233451 0.0696606 0.0495273 0.2176846 0.2773622 0.115792  0.1139527
- 0.1898168 0.3382168 6.3006847 0.5358712 0.1025123 0.0630639 0.4758884]</t>
-  </si>
-  <si>
-    <t>[ 9.9098066  3.3501143  9.5608182  0.0955305  0.2120671  0.5973015
-  0.5290819  0.1615363  0.2741893  0.3114337  0.1277085  0.2409587
-  0.0911668  0.1541211  0.1510783  0.1347463  0.1363027  0.1461873
-  0.7461737  0.2513548  0.1082588  0.0973432  0.3056827  0.5084367
-  0.7721203  0.1037303  0.2267968  1.4526211  2.949912   6.1918483
- 11.0070065  0.1095123  0.24712    0.1738276  1.2055906  0.5486197
-  0.1288507  0.2617185  0.1352269  0.3789408  0.1379829  0.2099254
-  0.0645748  0.3254164  0.1028433  0.0982557  0.1788861  0.3944529
-  0.054524   0.1288451  0.1381085  0.2812974  1.1248694  0.0892631
-  0.3790381  1.3715927  2.7072289  0.390376   3.086491   0.1027483
-  0.2888567  0.1806522  0.1033456  0.3617354  0.1299186  0.2222658
-  0.0888284  0.1023493  0.0945146  0.4833506  0.0742988  0.223079
-  0.1624028  0.1880175  0.3578136  0.2472831  0.049063   0.0868207
-  0.0848992  1.04442    1.1320934  0.1241656  0.1604644  0.9457714
-  0.2157653  1.5778419  0.2522137  0.1230698  1.5299671  0.3831252
-  0.2126362  0.3508593  0.5324669  1.8037095  0.0920987  0.1009596
-  0.1182725  0.1391661  0.0702017  0.1175117  0.0731062  0.101382
-  0.0619453  0.9911608  0.0467478  0.1208121  0.0919406  0.5090305
-  1.5838501  0.0776965  0.0810329  1.3073618  0.3067177  0.1087057
-  0.1095543  0.1236187  0.2112542  0.1467101  0.0965422  0.2302504
-  1.8886983  0.1522985  0.1639136  0.0703695  0.133672   0.0556811
-  0.0694626  0.111313   0.0456449  0.2052472  0.0562576  0.4834295
-  0.0591595  0.1541512  0.1629181  3.6032831  1.0189506  0.0972058
-  0.0750583  4.3179886  0.3391177  0.1479499  0.0782591  0.7809515
-  0.126519   0.1906022  0.2276459  0.2381052  0.2424694  0.1232012
-  0.1625545  0.1125513  0.1899225  0.0697262  0.1267907  0.0531492
-  0.0462931  0.2464746  0.2615558  0.1310523  0.07525    0.2251575
-  0.5171047  6.0461712  0.7530135  0.0984146  0.087802   1.0483898]</t>
-  </si>
-  <si>
-    <t>[4.8671011 1.58243   5.6274047 0.0640539 0.1079161 0.4119862 0.3465652
- 0.1248319 0.1450129 0.1929398 0.0800775 0.1733238 0.0854849 0.0583961
- 0.1135108 0.125543  0.1455818 0.1292697 0.3776443 0.126417  0.0964545
- 0.0869779 0.2604482 0.3166363 0.246992  0.1043112 0.1623056 1.9916353
- 0.7844872 2.9409809 5.6833391 0.0967895 0.4909767 0.0891453 0.437007
- 0.3622355 0.1091318 0.2090944 0.0840025 0.2334329 0.1158833 0.1511707
- 0.0569037 0.3636847 0.0621229 0.0840974 0.1832636 0.2233152 0.0461267
- 0.049082  0.0716772 0.1749934 0.5446651 0.0571734 0.2417488 1.7201946
- 2.5517737 0.5575628 1.6647483 0.1361759 0.323596  0.2196961 0.1585672
- 0.6006271 0.1767626 0.3018834 0.1391522 0.1399799 0.1309727 0.235291
- 0.0869064 0.1495951 0.1046099 0.2146998 0.4426725 0.585406  0.0809535
- 0.0918722 0.1631902 1.5636795 2.4422481 0.1064936 0.1911867 0.9829154
- 0.4135131 0.1121313 0.1125113 0.8480967 0.2110071 0.3011488 0.2938583
- 0.3639954 0.4605149 0.19672   0.2845789 0.1889708 0.2348075 0.1765059
- 0.1850018 0.1097329 0.0661037 0.331086  0.4288253 0.2330321 0.1137592
- 0.3032681 0.5668569 8.5810427 0.6218551 0.1397984 0.1072583 0.9816722
- 4.8639274 1.5780297 4.2064764 0.0934083 0.1620544 0.4439507 0.3676047
- 0.0950622 0.128298  0.2505495 0.0774255 0.1540222 0.0523611 0.0961984
- 0.087298  0.118005  0.1410961 0.1628593 0.36309   0.1507844 0.0998795
- 0.0758943 0.2203194 0.4366502 0.4192601 0.1334958 0.1793331 1.4623366
- 0.986498  2.7834984 5.8895318 0.0888927 0.3322034 0.1237875 0.5839321
- 0.3055388 0.1165619 0.2776176 0.0997266 0.3542453 0.1519271 0.1575379
- 0.0422037 0.3391357 0.0936384 0.0717128 0.2009373 0.2655904 0.055361
- 0.0482561 0.0826856 0.1745409 0.5107771 0.0771634 0.2126051 1.7133045]</t>
+    <t>[23 51 52 27 24 19 49  3 50 32 31 55 22 13  0 39  2 15 33 41  8 37 29  7
+ 17 46 12 30 11  5 38 42 36  1 21 10  4 34 16 53 43  6 18 40 28 47 35 45
+  9 54 25 14 26 48 44 20]</t>
+  </si>
+  <si>
+    <t>[23 51 83 79 52 80 24 27 19  3 59 49 78 50 68 61 55 32 15 13 31 57  2 22
+ 77 29 39  0 17 70 33 67 41 30 37  8 12 60  7 46  5 36 21 63 10 38 11  4
+ 56 40 64  6 62 74 34 65 16 43 18 53 82 58 47 28 75  1 76 54 66  9 69 71
+ 42 35 25 14 73 45 44 26 81 20 72 48]</t>
+  </si>
+  <si>
+    <t>[27 24  1  3 20 23 22  2 10  0  4  5  9 12  6 14 21 26 13 15  7  8 16 11
+ 18 17 19 25]</t>
+  </si>
+  <si>
+    <t>[  0  30   2 107  29   1  55  56  80  58  52  79  27  28  34  83  87  24
+ 108   6   5 111  63  35  23  75  18  32 106  84  39  57  22   9  43  54
+  37  91  92  47  11 102 105  46  96  90  51  69  89  65  94 101   8  61
+  19   7  26  74  60  41  88 103  82  40   4  73  78  64  62  17  36 104
+  21  13  33  38  93  31  97  71  14  95  15  72  98  16  10 109  25   3
+  50  67  45  66  86  42  68  59  99  12  44  85  20 110  77  53  81  49
+  48 100  70  76]</t>
+  </si>
+  <si>
+    <t>[ 30   2   0  29 163 139  58 135   1  56  27  88  93  85  80 120  55 107
+ 136  28 108  83 143  79   6 103  34 164 131   5 162  86 167  32  52  92
+  35  18  24  57  39  23  60  54  69  63  22  89  43 140  74  91  37  19
+  47 147   9 111  41  11  61  65  73 119 161  84   8  90 122 148 115  46
+  26 116  17 145   4 112 129  36 113 158 121  38  33 127 144 157 150 146
+  75  71  45  82  72 134   7  97 165  21  87  14  51 117 149 154  16  95
+ 152  50  59 101 118 102  96  62  15 126 133 159  68  25 123 114  31 151
+  13  40 106  10   3  42  94  81  64 124  44  66 142  67  99 137  12 160
+  77 155  78 153 109 105  76  48 132 166 141  49 104  53 125 100 130 110
+  98  20 128 156 138  70]</t>
+  </si>
+  <si>
+    <t>[107   2   0 112 142  30 114 141  56  29  58 113   1  80  27  55 111 167
+  83 140  24  79 139  52  87 136 164  28 146  84  34  75 106  63  57   6
+  18  92 102 144 108   5 147 130  60  90 118 135  88 117  91  32 163  61
+  65  43  35  39  89 158 101  62  22  74  94 151 105  37 166 155  69 123
+  96   9  64  98 103  47 159 149  82 121  73  93  54 120  51  11  17 134
+ 109  71 128  14  78  46 119  59  95  26  23 104 153  72   8 138  67   7
+  68  33 145  86  97 129  66  21  77  85  19  40 116  15 150 133 132 131
+ 110 152 162  36  41  13 137   4  16  70 165  20  38 148 126 157 143 125
+ 115  76  31 156  44 127  10 124  53   3  25 122  12 161 100  42  45  81
+ 154  99  50  48  49 160]</t>
+  </si>
+  <si>
+    <t>[2.1778658 1.4025367 2.5443609 0.0972102 0.1412216 0.25735   0.2561677
+ 0.1649245 0.1708946 0.2179484 0.0933927 0.1537536 0.1011787 0.1285599
+ 0.2019373 0.1414866 0.1361047 0.1273247 0.4536196 0.2355872 0.1182751
+ 0.1238189 0.1927517 0.267201  3.2073972 0.1499161 0.1670179 1.542816 ]</t>
+  </si>
+  <si>
+    <t>[3.1714602 1.6018944 3.0319923 0.0970208 0.1152926 0.2929892 0.3199001
+ 0.1536511 0.1523993 0.1759655 0.102655  0.1699807 0.0813729 0.0977916
+ 0.1215248 0.1359165 0.0991992 0.111237  0.3232204 0.1705226 0.0907916
+ 0.1225011 0.2232481 0.1453831 1.1718161 0.1295714 0.1344532 1.2719141
+ 0.4281152 1.820141  3.5819082 0.1091701 0.1979629 0.1301268 0.3310959
+ 0.3456639 0.1212978 0.2575125 0.1094174 0.2673274 0.1264669 0.1683649
+ 0.066939  0.3045254 0.0808764 0.0760328 0.2399424 0.2604406 0.0696313
+ 0.0626046 0.0673239 0.2931522 1.8728164 0.0857111 0.2772211 1.7791143]</t>
+  </si>
+  <si>
+    <t>[5.9819043 2.510855  4.7443852 0.1040443 0.1627818 0.5073111 0.4604653
+ 0.2150024 0.2518626 0.2906914 0.1262534 0.2505068 0.1162329 0.1336346
+ 0.1321879 0.1321796 0.0965394 0.1918719 0.4997562 0.1959558 0.1413019
+ 0.1288966 0.3638722 0.3835379 1.0078372 0.125659  0.2208326 1.5486929
+ 0.9858121 3.797421  6.4128525 0.124066  0.3506272 0.1928076 0.6170823
+ 0.4712185 0.1814494 0.3462183 0.1349791 0.4328912 0.2099414 0.2449919
+ 0.0946866 0.3889036 0.0751088 0.0820081 0.2471703 0.2812088 0.1051548
+ 0.0640352 0.151234  0.2251305 1.5771746 0.099339  0.3134563 2.1488969
+ 1.845879  0.406579  1.5538471 0.1314422 0.3347765 0.1934595 0.1916814
+ 0.396543  0.1657222 0.2222072 0.0959244 0.1004331 0.1088452 0.3098225
+ 0.1058636 0.1370438 0.1397429 0.1540475 0.3050537 0.4859608 0.109344
+ 0.1016635 0.1654752 1.2717234 2.8080742 0.0807594 0.1650656 1.1349035]</t>
+  </si>
+  <si>
+    <t>[0.6719445 2.0718697 4.0482594 0.116115  0.2485758 0.1539722 0.4210713
+ 0.3864598 0.139171  0.2534582 0.1421642 0.346666  0.1563124 0.2424226
+ 0.1449529 0.4503988 0.1297669 0.1349636 0.3970736 0.3449193 0.1043175
+ 0.0996733 0.1108252 0.4201662 3.0073022 0.1647536 0.3553099 2.0583935]</t>
+  </si>
+  <si>
+    <t>[1.2895323 3.3344157 7.7611118 0.1444508 0.2380124 0.2305916 0.7392743
+ 0.5492878 0.1709243 0.3682701 0.1927215 0.4605823 0.1936481 0.3238486
+ 0.1161046 0.5321687 0.1576319 0.1450599 0.3671173 0.350051  0.1055991
+ 0.1038487 0.1836842 0.4944806 1.7802148 0.1402603 0.3956856 2.2644217
+ 1.4995562 0.5132437 1.9650772 0.1172151 0.3852458 0.2482129 0.2319705
+ 0.3525677 0.2047539 0.3064845 0.1213374 0.1441036 0.1378066 0.2971343
+ 0.1160684 0.2413659 0.1573601 0.1685634 0.3422316 0.499049  0.0953791
+ 0.0863311 0.1626034 1.5864241 3.3694784 0.1608588 0.2257465 1.6059137]</t>
+  </si>
+  <si>
+    <t>[1.6854227 3.3840834 8.1805391 0.1227403 0.2445002 0.1804962 0.7603493
+ 0.4172039 0.1610169 0.2013293 0.1178415 0.318881  0.1417745 0.32537
+ 0.1041554 0.4599137 0.1363554 0.1183094 0.3205542 0.2896348 0.0630122
+ 0.1013707 0.1499292 0.5125971 1.195191  0.1174935 0.3594406 2.2335393
+ 1.6711113 0.3235754 2.6306413 0.1090286 0.341974  0.2078555 0.0805852
+ 0.215123  0.0840257 0.2165231 0.1035762 0.0916766 0.0872173 0.2512081
+ 0.0728093 0.1638205 0.1408023 0.1756879 0.3825689 0.1563902 0.0464853
+ 0.0644955 0.1445841 1.2869714 2.2439165 0.1687367 0.1465343 1.013113
+ 0.1821459 1.176996  0.2992348 0.1367314 1.1069308 0.2455078 0.1897703
+ 0.2477179 0.3668962 1.035918  0.1257102 0.161847  0.1783445 0.1170347
+ 0.0859171 0.2024511 0.1010106 0.1087696 0.1122545 0.9339948 0.0714915
+ 0.1353309 0.1554448 2.1716388 2.4746424 0.1018513 0.0856516 0.9867802]</t>
+  </si>
+  <si>
+    <t>[1.3572511 0.5394319 1.8516164 0.1226873 0.2752101 0.2507287 0.1759003
+ 0.287425  0.1646814 0.2385469 0.1355278 0.2063524 0.1873016 0.5313547
+ 0.1470047 0.5326014 0.2552632 0.2202605 0.4271404 0.5285154 0.1517176
+ 0.1318761 0.1787455 2.2588079 5.5405874 0.2088628 0.2799612 1.4826714]</t>
+  </si>
+  <si>
+    <t>[2.2483967 0.5398705 3.0107566 0.1085198 0.4294231 0.2246824 0.1176273
+ 0.2052227 0.121227  0.1741123 0.1246623 0.0939314 0.1273287 0.8144333
+ 0.0952812 0.5035548 0.2238994 0.2270095 0.4724431 0.221192  0.0812506
+ 0.1157908 0.1072427 2.319042  3.6556494 0.1411475 0.1844306 2.0409376
+ 0.2541235 1.8547712 0.7916072 0.1246816 0.7401878 0.2717367 0.1676477
+ 0.3092631 0.3541289 1.0883721 0.1121432 0.2135155 0.1111889 0.1341945
+ 0.0911514 0.2750041 0.1523254 0.1373475 0.0839403 1.0964893 0.1105072
+ 0.152723  0.1505501 2.0605799 3.2452533 0.1311236 0.1185396 1.8422303]</t>
+  </si>
+  <si>
+    <t>[2.4638195 0.7993921 4.1234546 0.0994044 0.3468296 0.23068   0.1413107
+ 0.2266686 0.0970938 0.2051894 0.1095354 0.1270308 0.0927683 0.9189883
+ 0.0866322 0.4858381 0.280417  0.2569582 0.5268487 0.2823068 0.0526975
+ 0.1067191 0.1132512 1.744105  2.7093366 0.1577389 0.1921587 1.9107558
+ 0.3246046 1.8438882 0.8825124 0.1271005 1.0695995 0.2971823 0.1705556
+ 0.3123193 0.3286818 1.0861554 0.0907442 0.2075557 0.1080098 0.1566858
+ 0.0658476 0.153593  0.139484  0.1110193 0.0774911 0.9858608 0.0538454
+ 0.0834399 0.139025  1.4647179 2.122064  0.0918915 0.1072107 1.8580209
+ 0.1934638 0.1114526 0.1752082 0.1947677 0.1812296 0.1236595 0.1105399
+ 0.1883542 1.0710212 0.220887  0.1762955 0.1163887 0.0809602 0.0585604
+ 0.1211934 0.2111313 0.0742231 0.1594281 0.0670671 0.8632864 0.0544637
+ 0.1546607 0.1851859 4.7458171 1.6505284 0.1374021 0.090791  5.4687377]</t>
+  </si>
+  <si>
+    <t>[0.2660443 1.1899637 0.7534756 0.1194248 0.4712704 0.1675201 0.1149095
+ 0.2234291 0.2329419 0.6788195 0.1027515 0.2708822 0.0960828 0.4864743
+ 0.1056679 0.4639629 0.21107   0.1692234 0.1591712 0.8287841 0.1119201
+ 0.1333739 0.1499461 2.5616234 4.458772  0.1357814 0.1423656 1.8031329]</t>
+  </si>
+  <si>
+    <t>[0.2601533 1.3437958 1.321708  0.1593078 0.6869052 0.21832   0.1703442
+ 0.2718025 0.2121593 0.9195269 0.0865178 0.2228948 0.1194404 0.6043037
+ 0.0759451 0.561124  0.2178566 0.1420584 0.2287707 0.8394364 0.0617458
+ 0.1130067 0.1423924 1.6967919 2.3934837 0.1001046 0.1340142 1.3780152
+ 0.1612532 0.1168476 0.3586054 0.125915  0.1654287 0.0918663 0.1011138
+ 0.1621065 0.757572  0.1644715 0.1371014 0.1352294 0.0787939 0.0973413
+ 0.0810853 0.2692965 0.1079601 0.1687693 0.0743064 0.9070229 0.0664085
+ 0.1749738 0.2016875 3.8842283 2.43713   0.1677915 0.0793914 5.436694 ]</t>
+  </si>
+  <si>
+    <t>[0.3136843 1.7061604 1.8658446 0.1278092 0.8446064 0.2883578 0.1562517
+ 0.3117722 0.2428406 1.1790546 0.1147242 0.3064038 0.1551449 0.587804
+ 0.0677553 0.5646166 0.2100489 0.1985914 0.1806722 1.3932615 0.0630448
+ 0.1342634 0.1198764 1.6326601 2.5311787 0.0992079 0.1273629 1.4021128
+ 0.1791007 0.1562314 0.5282652 0.1735216 0.1553114 0.1118936 0.1272337
+ 0.1571204 0.9995154 0.1437283 0.1255876 0.2118492 0.1154665 0.075074
+ 0.0671242 0.3607541 0.1004113 0.2006102 0.0616144 1.3820387 0.0563522
+ 0.140245  0.1607462 3.4342912 1.9038706 0.1168039 0.0710237 6.6328358
+ 0.1901349 0.0935726 0.2650068 0.7525131 0.1295854 0.14431   0.1061625
+ 0.2258595 0.1310894 0.1121759 0.1689164 0.1419262 0.2111369 0.1421472
+ 0.1027745 0.1364053 0.0793548 0.1360423 0.1002755 0.1110268 0.0554953
+ 0.2720258 0.8541091 8.4849407 0.9646714 0.1543254 0.0788523 1.1314096]</t>
+  </si>
+  <si>
+    <t>[0.1362423 0.1655152 0.438264  0.1339821 0.1704198 0.1265089 0.1307343
+ 0.1615757 0.6704601 0.1874397 0.1361866 0.1773728 0.1273135 0.2255191
+ 0.113206  0.4944304 0.2268887 0.2269271 0.1555077 1.1396056 0.1063835
+ 0.2101772 0.281147  4.0892372 2.7080203 0.2145392 0.1048745 4.1229122]</t>
+  </si>
+  <si>
+    <t>[0.1555071 0.1855035 0.7028016 0.1431252 0.1616931 0.1443203 0.1017931
+ 0.1517015 0.9921926 0.1760586 0.158256  0.2155761 0.1203635 0.1869509
+ 0.0854924 0.501758  0.2177309 0.248126  0.1110586 1.7926653 0.0731425
+ 0.1479358 0.191903  3.7631848 1.8710002 0.146486  0.0792673 6.3836325
+ 0.2871239 0.1706263 0.2228188 0.6361544 0.1761495 0.159717  0.1386213
+ 0.2510267 0.1526519 0.1000735 0.1473476 0.1423445 0.2032192 0.1772464
+ 0.1252715 0.2018918 0.1247191 0.1238179 0.156652  0.1734029 0.0645929
+ 0.2699117 0.9474499 6.8378398 0.8973015 0.158288  0.1137141 1.0727417]</t>
+  </si>
+  <si>
+    <t>[0.1750759 0.1182653 0.9560803 0.1244972 0.1454849 0.1373964 0.1262925
+ 0.1344996 1.2541868 0.1696083 0.1540626 0.2641683 0.1065265 0.1366281
+ 0.0738605 0.5267183 0.2284355 0.3112711 0.0813542 2.6033878 0.0647359
+ 0.0775215 0.1450919 5.4953683 1.5851342 0.1415438 0.0818758 4.9206828
+ 0.3593757 0.1235093 0.3536504 0.8251178 0.2130737 0.1722589 0.1336931
+ 0.2135478 0.1792785 0.10369   0.1272646 0.119386  0.1496884 0.1929241
+ 0.0722833 0.1374362 0.1298858 0.1204849 0.0934318 0.2169206 0.0409637
+ 0.2158724 0.4637647 6.6764857 0.9364034 0.1169129 0.0853947 1.5513641
+ 0.1177351 0.1681599 0.2863173 0.4895521 0.5722704 0.268122  0.1723309
+ 0.1176294 0.222935  0.3130988 0.2126002 0.3505866 0.1144619 0.1650699
+ 0.1757138 0.096373  0.0814499 0.1294408 0.2254136 0.0559305 0.0675618
+ 0.8183924 0.8781574 5.8348233 1.9364823 0.164053  0.0872636 0.353631 ]</t>
+  </si>
+  <si>
+    <t>[0.2995567 0.1562635 0.2544305 0.5536464 0.1784045 0.1618471 0.1698369
+ 0.2281137 0.2298453 0.1076618 0.193264  0.2037869 0.2249047 0.3659939
+ 0.1592036 0.4775092 0.2017718 0.2161056 0.1658555 0.7572406 0.0931808
+ 0.2656604 0.7056706 7.4263439 2.3908651 0.2011677 0.1218261 1.5240885]</t>
+  </si>
+  <si>
+    <t>[0.3825803 0.1676947 0.3759141 0.7395325 0.1569612 0.1850348 0.1266652
+ 0.2288133 0.2840392 0.1014233 0.1590197 0.1855917 0.2069384 0.3975178
+ 0.0826958 0.3494452 0.1465508 0.2152909 0.1247568 0.8190133 0.0428337
+ 0.1652615 0.435554  7.268877  1.2149709 0.0908657 0.0677694 1.3135491
+ 0.1097049 0.2526935 0.206345  0.4985823 0.5082275 0.2958201 0.1503396
+ 0.1059227 0.1786144 0.2536988 0.1839759 0.3814928 0.1214798 0.2901487
+ 0.1819086 0.1318424 0.0632305 0.1034731 0.21189   0.1067009 0.0633142
+ 0.7694013 0.7338132 5.7998054 3.0309467 0.1352583 0.1000745 0.4803163]</t>
+  </si>
+  <si>
+    <t>[0.3404965 0.1014322 0.4422687 0.7098664 0.1560308 0.1918191 0.1455395
+ 0.2280219 0.2539682 0.0931211 0.166457  0.1602512 0.248775  0.4655866
+ 0.0772239 0.4689388 0.1210836 0.322771  0.1196864 1.1824005 0.0420045
+ 0.1713133 0.4273797 7.6640222 1.3016166 0.0827953 0.0562692 1.2873208
+ 0.1044908 0.3600883 0.2605961 0.4560661 0.4913567 0.2858177 0.1309488
+ 0.0845653 0.1746882 0.2584709 0.1621462 0.3545889 0.1535845 0.2756271
+ 0.0846258 0.12061   0.0607789 0.0705774 0.2030306 0.1047391 0.0374299
+ 0.6784924 0.6276859 4.9935875 1.6501793 0.1162621 0.0976799 0.4957155
+ 0.1557794 0.4474598 0.1101033 0.6862452 0.2485552 0.52213   0.1452525
+ 0.1700719 0.1481044 0.1223    0.095574  0.281829  0.5274007 0.0906321
+ 0.3076692 0.0868413 0.0409432 0.070933  0.1319896 0.1016544 0.0978459
+ 0.4117386 0.658025  3.5926062 1.6359416 0.0497212 0.1108464 3.69123  ]</t>
+  </si>
+  <si>
+    <t>[0.3474966 1.8527461 0.4775932 1.2228428 0.3441775 0.2572168 0.220996
+ 0.1662118 0.1621297 0.2430534 0.3772081 0.1562146 0.2344747 0.1736431
+ 0.2007906 0.1687408 0.1613353 0.1443702 0.1464214 0.1317535 1.2165822
+ 0.1864854 0.5172916 0.8506265 2.9834828 0.1292164 0.1835592 5.0568506]</t>
+  </si>
+  <si>
+    <t>[7.4933939 2.5179547 6.2520294 0.0958105 0.1442243 0.5388738 0.5692356
+ 0.181608  0.1935583 0.3234083 0.1030134 0.2627235 0.0832507 0.128229
+ 0.1162906 0.1112014 0.1042846 0.1340418 0.3794378 0.186016  0.0779252
+ 0.1323831 0.3247283 0.4612984 0.6093037 0.0967328 0.1809546 1.1195333
+ 0.8301419 3.3761974 6.291071  0.1236981 0.3770214 0.1275365 0.6818942
+ 0.4825936 0.133476  0.2787731 0.1252477 0.3408023 0.1483603 0.1643704
+ 0.0867999 0.2965756 0.082327  0.0898011 0.2289886 0.2639779 0.0614308
+ 0.0638095 0.0923278 0.2064921 1.184268  0.0665268 0.2847453 2.2592002
+ 2.2470414 0.3331443 1.2385409 0.0849181 0.1757019 0.1874309 0.136347
+ 0.4894297 0.1378409 0.202665  0.0896091 0.090917  0.08648   0.2063612
+ 0.0555704 0.1189793 0.1063814 0.1424656 0.1780348 0.3808448 0.0473228
+ 0.0759083 0.138199  1.1245679 1.49519   0.0662497 0.1524549 0.6570476
+ 0.3503878 0.0798515 0.0876424 0.6265789 0.1567951 0.2031048 0.2100728
+ 0.2671053 0.2664567 0.1240852 0.1977797 0.1162008 0.2173146 0.1192031
+ 0.1051535 0.083857  0.0611452 0.1936248 0.2542745 0.1538516 0.1325431
+ 0.2300421 0.3698688 5.3525139 0.6050257 0.1010728 0.0764813 0.5105301]</t>
+  </si>
+  <si>
+    <t>[ 8.5975571  2.1760409  8.7533076  0.0786597  0.1461596  0.5197772
+  0.7162178  0.1166086  0.1589854  0.2183263  0.0792935  0.1967572
+  0.0665324  0.0843635  0.1080777  0.0939895  0.1040146  0.1502055
+  0.4291269  0.2315652  0.0386459  0.1103393  0.2769027  0.3265697
+  0.4217431  0.0880749  0.1521671  1.4328759  0.8920053  4.0729854
+ 10.9729628  0.0870172  0.4647174  0.1332483  0.6952614  0.4310536
+  0.140817   0.2348735  0.1333605  0.3314549  0.0832289  0.2000518
+  0.0781419  0.2645566  0.0722106  0.121588   0.1569036  0.2304207
+  0.053563   0.0503111  0.1015111  0.1070619  0.4529423  0.0465018
+  0.2985729  1.1323263  1.8819094  0.3864876  2.6217657  0.1008641
+  0.3098927  0.1799533  0.0940365  0.2783343  0.0751206  0.179699
+  0.0716847  0.0697463  0.0898331  0.2921289  0.031122   0.1243669
+  0.1189141  0.177082   0.2452251  0.1251206  0.0545456  0.0633185
+  0.0602351  0.7320016  1.2267358  0.0751787  0.1200289  0.8050635
+  0.1652391  1.263402   0.4749197  0.1081559  1.3996876  0.2758587
+  0.1589661  0.2414397  0.4352872  1.3803079  0.0752076  0.1034382
+  0.0942105  0.1123386  0.0389326  0.0689422  0.0446648  0.0998511
+  0.0947387  0.7078648  0.0496414  0.0547279  0.0796358  1.003184
+  0.8311371  0.0548283  0.0420694  0.2057602  0.1453734  0.1369362
+  0.0876485  0.1569953  0.1514907  0.1069784  0.0965001  0.1721829
+  1.2154196  0.1339336  0.1589105  0.0876681  0.0729428  0.0464558
+  0.0935012  0.1325716  0.0366866  0.142234   0.0438814  0.5377253
+  0.0519821  0.0923178  0.1170003  2.2524385  0.9351241  0.0667077
+  0.031359   3.5257209  0.250843   0.050874   0.0703082  0.8041408
+  0.1322845  0.1474577  0.1251911  0.2230171  0.1585973  0.1051421
+  0.1281103  0.0844589  0.1029989  0.0551146  0.1048727  0.0617021
+  0.0348831  0.1311965  0.1359089  0.0922975  0.0650231  0.171643
+  0.5130545  3.7241305  0.5670203  0.1114844  0.0516411  0.4699369]</t>
+  </si>
+  <si>
+    <t>[5.3617578 1.5867567 5.8812105 0.0707786 0.0943227 0.4035864 0.4537326
+ 0.1310844 0.1388317 0.2240975 0.0727232 0.1811615 0.0690758 0.1001386
+ 0.1670528 0.1131759 0.0933501 0.1764106 0.4300215 0.1136485 0.0898592
+ 0.1248749 0.2541191 0.1574205 1.0611482 0.0703288 0.157516  1.5515097
+ 0.7218555 2.5864874 4.5067535 0.0747784 0.3220953 0.1279075 0.5377634
+ 0.2859442 0.1013535 0.2332934 0.0894731 0.2787104 0.1132695 0.1004175
+ 0.0683419 0.2895632 0.0738997 0.0656671 0.1620152 0.2146803 0.0458289
+ 0.045265  0.0601478 0.1816563 0.9034751 0.0713753 0.1938827 1.4075978
+ 2.7471069 0.4650422 2.0853537 0.1588992 0.3920917 0.3003354 0.2549229
+ 0.4821697 0.2176815 0.2931686 0.1249126 0.1311744 0.1296566 0.2284196
+ 0.0904093 0.1698733 0.1434534 0.2054729 0.2534617 0.5362631 0.0750845
+ 0.1247162 0.1635842 1.0281387 1.5515954 0.064475  0.2103983 1.2412769
+ 0.5490337 0.1148225 0.1267813 0.8891243 0.3387242 0.2722753 0.3861307
+ 0.3348888 0.4278614 0.1948333 0.2482109 0.1579892 0.2268815 0.1259883
+ 0.2167071 0.0619295 0.0684077 0.2646576 0.4231156 0.2166367 0.1549323
+ 0.2389885 0.4885407 7.468431  0.4196038 0.1713066 0.1060475 1.3406511
+ 5.008718  1.9086266 4.3753996 0.0763138 0.1132104 0.337602  0.3718293
+ 0.1610344 0.1869965 0.2073108 0.0698354 0.2273117 0.0715895 0.0801658
+ 0.0877471 0.0728802 0.167524  0.1255768 0.3946391 0.1061268 0.107975
+ 0.1121503 0.1716336 0.3662397 0.7772706 0.0954957 0.1345356 1.0102333
+ 1.080057  2.9070376 4.9035612 0.0843257 0.4221574 0.1274882 0.632501
+ 0.4032452 0.0887462 0.2106731 0.1130891 0.2469004 0.103757  0.1463348
+ 0.0636262 0.2286297 0.07466   0.084779  0.2654752 0.2133852 0.0415864
+ 0.0688833 0.1021337 0.3207481 0.7504307 0.0901842 0.232028  1.2535274]</t>
   </si>
   <si>
     <t>_1</t>
@@ -908,13 +908,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.85899999999999999</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="C2">
-        <v>0.86</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="D2">
-        <v>0.87</v>
+        <v>0.80400000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -922,13 +922,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.86199999999999999</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="C3">
-        <v>0.86699999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="D3">
-        <v>0.86299999999999999</v>
+        <v>0.81499999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -936,13 +936,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="C4">
-        <v>0.86699999999999999</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="D4">
-        <v>0.85599999999999998</v>
+        <v>0.81799999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -950,13 +950,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.86599999999999999</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="C5">
-        <v>0.86299999999999999</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="D5">
-        <v>0.86699999999999999</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -964,13 +964,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.86299999999999999</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="C6">
-        <v>0.86199999999999999</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="D6">
-        <v>0.85199999999999998</v>
+        <v>0.80300000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -978,13 +978,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.88</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="C7">
-        <v>0.877</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="D7">
-        <v>0.88400000000000001</v>
+        <v>0.84499999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -992,13 +992,13 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.88600000000000001</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="C8">
-        <v>0.871</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="D8">
-        <v>0.88400000000000001</v>
+        <v>0.83499999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1006,13 +1006,13 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0.876</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="C9">
-        <v>0.87</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="D9">
-        <v>0.88100000000000001</v>
+        <v>0.82899999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1020,13 +1020,13 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0.88</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="C10">
-        <v>0.877</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="D10">
-        <v>0.879</v>
+        <v>0.83899999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1034,13 +1034,13 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>0.88200000000000001</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="C11">
-        <v>0.86799999999999999</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="D11">
-        <v>0.877</v>
+        <v>0.83599999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1048,13 +1048,13 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <v>0.88700000000000001</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="C12">
-        <v>0.88400000000000001</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="D12">
-        <v>0.89700000000000002</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1062,13 +1062,13 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>0.88</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="C13">
-        <v>0.89</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="D13">
-        <v>0.89</v>
+        <v>0.85899999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1076,13 +1076,13 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>0.88500000000000001</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="C14">
-        <v>0.88500000000000001</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="D14">
-        <v>0.89900000000000002</v>
+        <v>0.85299999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1090,13 +1090,13 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>0.88700000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="C15">
-        <v>0.88400000000000001</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="D15">
-        <v>0.90600000000000003</v>
+        <v>0.86199999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1104,13 +1104,13 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>0.89300000000000002</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="C16">
-        <v>0.88600000000000001</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="D16">
-        <v>0.89300000000000002</v>
+        <v>0.85599999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1118,13 +1118,13 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>0.86299999999999999</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="C17">
-        <v>0.85799999999999998</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="D17">
-        <v>0.873</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1132,13 +1132,13 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>0.873</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="C18">
-        <v>0.86899999999999999</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="D18">
-        <v>0.872</v>
+        <v>0.84499999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1146,13 +1146,13 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <v>0.874</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="C19">
-        <v>0.86299999999999999</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="D19">
-        <v>0.872</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1160,13 +1160,13 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <v>0.85799999999999998</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="C20">
-        <v>0.85199999999999998</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="D20">
-        <v>0.86899999999999999</v>
+        <v>0.85099999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1174,13 +1174,13 @@
         <v>7</v>
       </c>
       <c r="B21">
-        <v>0.86299999999999999</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="C21">
-        <v>0.86199999999999999</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="D21">
-        <v>0.88700000000000001</v>
+        <v>0.85399999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1188,13 +1188,13 @@
         <v>8</v>
       </c>
       <c r="B22">
-        <v>0.875</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="C22">
-        <v>0.879</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="D22">
-        <v>0.86599999999999999</v>
+        <v>0.85899999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1202,13 +1202,13 @@
         <v>8</v>
       </c>
       <c r="B23">
-        <v>0.86899999999999999</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="C23">
-        <v>0.874</v>
+        <v>0.84</v>
       </c>
       <c r="D23">
-        <v>0.88200000000000001</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1216,13 +1216,13 @@
         <v>8</v>
       </c>
       <c r="B24">
-        <v>0.86799999999999999</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="C24">
-        <v>0.874</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="D24">
-        <v>0.88700000000000001</v>
+        <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1230,13 +1230,13 @@
         <v>8</v>
       </c>
       <c r="B25">
-        <v>0.86599999999999999</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="C25">
-        <v>0.86199999999999999</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="D25">
-        <v>0.875</v>
+        <v>0.85599999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1244,13 +1244,13 @@
         <v>8</v>
       </c>
       <c r="B26">
-        <v>0.873</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="C26">
-        <v>0.874</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="D26">
-        <v>0.872</v>
+        <v>0.86099999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1258,13 +1258,13 @@
         <v>9</v>
       </c>
       <c r="B27">
-        <v>0.88800000000000001</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="C27">
-        <v>0.89200000000000002</v>
+        <v>0.875</v>
       </c>
       <c r="D27">
-        <v>0.89400000000000002</v>
+        <v>0.86599999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1272,13 +1272,13 @@
         <v>9</v>
       </c>
       <c r="B28">
-        <v>0.88700000000000001</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="C28">
-        <v>0.89900000000000002</v>
+        <v>0.876</v>
       </c>
       <c r="D28">
-        <v>0.878</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1286,13 +1286,13 @@
         <v>9</v>
       </c>
       <c r="B29">
-        <v>0.89200000000000002</v>
+        <v>0.876</v>
       </c>
       <c r="C29">
-        <v>0.88900000000000001</v>
+        <v>0.879</v>
       </c>
       <c r="D29">
-        <v>0.88500000000000001</v>
+        <v>0.86599999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1300,13 +1300,13 @@
         <v>9</v>
       </c>
       <c r="B30">
-        <v>0.89300000000000002</v>
+        <v>0.87</v>
       </c>
       <c r="C30">
-        <v>0.88300000000000001</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="D30">
-        <v>0.88200000000000001</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1314,13 +1314,13 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>0.89700000000000002</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="C31">
-        <v>0.89200000000000002</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="D31">
-        <v>0.88600000000000001</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1328,13 +1328,13 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="C32">
-        <v>0.92800000000000005</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="D32">
-        <v>0.92</v>
+        <v>0.91600000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1342,13 +1342,13 @@
         <v>10</v>
       </c>
       <c r="B33">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="C33">
-        <v>0.92300000000000004</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="D33">
-        <v>0.92</v>
+        <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1356,13 +1356,13 @@
         <v>10</v>
       </c>
       <c r="B34">
-        <v>0.91600000000000004</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="C34">
-        <v>0.92700000000000005</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="D34">
-        <v>0.92100000000000004</v>
+        <v>0.90300000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1370,13 +1370,13 @@
         <v>10</v>
       </c>
       <c r="B35">
-        <v>0.91200000000000003</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="C35">
-        <v>0.92500000000000004</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="D35">
-        <v>0.92</v>
+        <v>0.92400000000000004</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1384,13 +1384,13 @@
         <v>10</v>
       </c>
       <c r="B36">
-        <v>0.91800000000000004</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="C36">
-        <v>0.92100000000000004</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="D36">
-        <v>0.92400000000000004</v>
+        <v>0.91600000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1398,13 +1398,13 @@
         <v>11</v>
       </c>
       <c r="B37">
-        <v>0.92400000000000004</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="C37">
-        <v>0.93200000000000005</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="D37">
-        <v>0.92600000000000005</v>
+        <v>0.90800000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1412,13 +1412,13 @@
         <v>11</v>
       </c>
       <c r="B38">
-        <v>0.93700000000000006</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="C38">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="D38">
-        <v>0.93200000000000005</v>
+        <v>0.92100000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1426,13 +1426,13 @@
         <v>11</v>
       </c>
       <c r="B39">
-        <v>0.92500000000000004</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="C39">
-        <v>0.92700000000000005</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="D39">
-        <v>0.93600000000000005</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1440,13 +1440,13 @@
         <v>11</v>
       </c>
       <c r="B40">
-        <v>0.92300000000000004</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="C40">
-        <v>0.92200000000000004</v>
+        <v>0.91</v>
       </c>
       <c r="D40">
-        <v>0.93100000000000005</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1454,13 +1454,13 @@
         <v>11</v>
       </c>
       <c r="B41">
-        <v>0.92600000000000005</v>
+        <v>0.92</v>
       </c>
       <c r="C41">
-        <v>0.92800000000000005</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="D41">
-        <v>0.93100000000000005</v>
+        <v>0.92100000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1468,13 +1468,13 @@
         <v>12</v>
       </c>
       <c r="B42">
-        <v>0.89700000000000002</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="C42">
-        <v>0.90500000000000003</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="D42">
-        <v>0.88500000000000001</v>
+        <v>0.91500000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1482,13 +1482,13 @@
         <v>12</v>
       </c>
       <c r="B43">
-        <v>0.89700000000000002</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="C43">
-        <v>0.90600000000000003</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="D43">
-        <v>0.90300000000000002</v>
+        <v>0.91100000000000003</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1496,13 +1496,13 @@
         <v>12</v>
       </c>
       <c r="B44">
-        <v>0.89800000000000002</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="C44">
-        <v>0.90200000000000002</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="D44">
-        <v>0.89400000000000002</v>
+        <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1510,13 +1510,13 @@
         <v>12</v>
       </c>
       <c r="B45">
-        <v>0.89900000000000002</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="C45">
-        <v>0.9</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="D45">
-        <v>0.90500000000000003</v>
+        <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1527,10 +1527,10 @@
         <v>0.90400000000000003</v>
       </c>
       <c r="C46">
-        <v>0.89</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="D46">
-        <v>0.90800000000000003</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1538,13 +1538,13 @@
         <v>13</v>
       </c>
       <c r="B47">
-        <v>0.88200000000000001</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="C47">
-        <v>0.88400000000000001</v>
+        <v>0.871</v>
       </c>
       <c r="D47">
-        <v>0.879</v>
+        <v>0.86399999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1552,13 +1552,13 @@
         <v>13</v>
       </c>
       <c r="B48">
-        <v>0.879</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="C48">
-        <v>0.88800000000000001</v>
+        <v>0.878</v>
       </c>
       <c r="D48">
-        <v>0.88900000000000001</v>
+        <v>0.86599999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1566,13 +1566,13 @@
         <v>13</v>
       </c>
       <c r="B49">
-        <v>0.88600000000000001</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="C49">
-        <v>0.89300000000000002</v>
+        <v>0.875</v>
       </c>
       <c r="D49">
-        <v>0.89100000000000001</v>
+        <v>0.86199999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1580,13 +1580,13 @@
         <v>13</v>
       </c>
       <c r="B50">
-        <v>0.88600000000000001</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="C50">
-        <v>0.89200000000000002</v>
+        <v>0.876</v>
       </c>
       <c r="D50">
-        <v>0.89200000000000002</v>
+        <v>0.85899999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1594,13 +1594,13 @@
         <v>13</v>
       </c>
       <c r="B51">
-        <v>0.88300000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="C51">
-        <v>0.89</v>
+        <v>0.874</v>
       </c>
       <c r="D51">
-        <v>0.88500000000000001</v>
+        <v>0.86199999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1608,13 +1608,13 @@
         <v>14</v>
       </c>
       <c r="B52">
-        <v>0.86299999999999999</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="C52">
-        <v>0.86799999999999999</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="D52">
-        <v>0.86099999999999999</v>
+        <v>0.86399999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1622,13 +1622,13 @@
         <v>14</v>
       </c>
       <c r="B53">
-        <v>0.85799999999999998</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="C53">
-        <v>0.86199999999999999</v>
+        <v>0.873</v>
       </c>
       <c r="D53">
-        <v>0.85599999999999998</v>
+        <v>0.86799999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1636,13 +1636,13 @@
         <v>14</v>
       </c>
       <c r="B54">
-        <v>0.85399999999999998</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="C54">
-        <v>0.86499999999999999</v>
+        <v>0.877</v>
       </c>
       <c r="D54">
-        <v>0.86299999999999999</v>
+        <v>0.86899999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1650,13 +1650,13 @@
         <v>14</v>
       </c>
       <c r="B55">
+        <v>0.86</v>
+      </c>
+      <c r="C55">
+        <v>0.878</v>
+      </c>
+      <c r="D55">
         <v>0.85799999999999998</v>
-      </c>
-      <c r="C55">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="D55">
-        <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1664,13 +1664,13 @@
         <v>14</v>
       </c>
       <c r="B56">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="C56">
+        <v>0.87</v>
+      </c>
+      <c r="D56">
         <v>0.86099999999999999</v>
-      </c>
-      <c r="C56">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="D56">
-        <v>0.85199999999999998</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1678,13 +1678,13 @@
         <v>15</v>
       </c>
       <c r="B57">
-        <v>0.86099999999999999</v>
+        <v>0.879</v>
       </c>
       <c r="C57">
-        <v>0.871</v>
+        <v>0.87</v>
       </c>
       <c r="D57">
-        <v>0.873</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1692,13 +1692,13 @@
         <v>15</v>
       </c>
       <c r="B58">
-        <v>0.86799999999999999</v>
+        <v>0.879</v>
       </c>
       <c r="C58">
-        <v>0.86</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="D58">
-        <v>0.876</v>
+        <v>0.86299999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1706,13 +1706,13 @@
         <v>15</v>
       </c>
       <c r="B59">
-        <v>0.85699999999999998</v>
+        <v>0.875</v>
       </c>
       <c r="C59">
-        <v>0.86199999999999999</v>
+        <v>0.878</v>
       </c>
       <c r="D59">
-        <v>0.88</v>
+        <v>0.86499999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1720,13 +1720,13 @@
         <v>15</v>
       </c>
       <c r="B60">
-        <v>0.87</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="C60">
-        <v>0.86799999999999999</v>
+        <v>0.872</v>
       </c>
       <c r="D60">
-        <v>0.874</v>
+        <v>0.88600000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1734,13 +1734,13 @@
         <v>15</v>
       </c>
       <c r="B61">
-        <v>0.86699999999999999</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="C61">
-        <v>0.874</v>
+        <v>0.877</v>
       </c>
       <c r="D61">
-        <v>0.877</v>
+        <v>0.88100000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1748,13 +1748,13 @@
         <v>16</v>
       </c>
       <c r="B62">
-        <v>0.84</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="C62">
-        <v>0.83599999999999997</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="D62">
-        <v>0.84699999999999998</v>
+        <v>0.85699999999999998</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1762,13 +1762,13 @@
         <v>16</v>
       </c>
       <c r="B63">
-        <v>0.83399999999999996</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="C63">
-        <v>0.83599999999999997</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="D63">
-        <v>0.83699999999999997</v>
+        <v>0.85199999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1776,13 +1776,13 @@
         <v>16</v>
       </c>
       <c r="B64">
-        <v>0.83199999999999996</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="C64">
-        <v>0.84099999999999997</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="D64">
-        <v>0.83599999999999997</v>
+        <v>0.85399999999999998</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1790,13 +1790,13 @@
         <v>16</v>
       </c>
       <c r="B65">
-        <v>0.83699999999999997</v>
+        <v>0.86</v>
       </c>
       <c r="C65">
-        <v>0.82899999999999996</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="D65">
-        <v>0.84299999999999997</v>
+        <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1804,13 +1804,13 @@
         <v>16</v>
       </c>
       <c r="B66">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="C66">
         <v>0.84499999999999997</v>
       </c>
-      <c r="C66">
-        <v>0.83899999999999997</v>
-      </c>
       <c r="D66">
-        <v>0.84299999999999997</v>
+        <v>0.85799999999999998</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1818,13 +1818,13 @@
         <v>17</v>
       </c>
       <c r="B67">
-        <v>0.86899999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="C67">
-        <v>0.86</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="D67">
-        <v>0.85399999999999998</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1832,13 +1832,13 @@
         <v>17</v>
       </c>
       <c r="B68">
-        <v>0.85799999999999998</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="C68">
-        <v>0.85199999999999998</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="D68">
-        <v>0.86599999999999999</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1846,13 +1846,13 @@
         <v>17</v>
       </c>
       <c r="B69">
-        <v>0.86799999999999999</v>
+        <v>0.871</v>
       </c>
       <c r="C69">
-        <v>0.84899999999999998</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="D69">
-        <v>0.86799999999999999</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1860,13 +1860,13 @@
         <v>17</v>
       </c>
       <c r="B70">
-        <v>0.86</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="C70">
-        <v>0.85799999999999998</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="D70">
-        <v>0.86299999999999999</v>
+        <v>0.86499999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1874,13 +1874,13 @@
         <v>17</v>
       </c>
       <c r="B71">
-        <v>0.86799999999999999</v>
+        <v>0.877</v>
       </c>
       <c r="C71">
-        <v>0.86699999999999999</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="D71">
-        <v>0.86099999999999999</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1888,13 +1888,13 @@
         <v>18</v>
       </c>
       <c r="B72">
-        <v>0.87</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="C72">
-        <v>0.88300000000000001</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="D72">
-        <v>0.89600000000000002</v>
+        <v>0.90300000000000002</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1902,13 +1902,13 @@
         <v>18</v>
       </c>
       <c r="B73">
-        <v>0.88100000000000001</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="C73">
-        <v>0.89200000000000002</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="D73">
-        <v>0.90200000000000002</v>
+        <v>0.90100000000000002</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1916,13 +1916,13 @@
         <v>18</v>
       </c>
       <c r="B74">
-        <v>0.88200000000000001</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="C74">
-        <v>0.88600000000000001</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="D74">
-        <v>0.90500000000000003</v>
+        <v>0.89200000000000002</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1930,13 +1930,13 @@
         <v>18</v>
       </c>
       <c r="B75">
-        <v>0.88700000000000001</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="C75">
-        <v>0.89200000000000002</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="D75">
-        <v>0.90200000000000002</v>
+        <v>0.89800000000000002</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1944,13 +1944,13 @@
         <v>18</v>
       </c>
       <c r="B76">
-        <v>0.88100000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="C76">
-        <v>0.88200000000000001</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="D76">
-        <v>0.90500000000000003</v>
+        <v>0.90100000000000002</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1958,13 +1958,13 @@
         <v>19</v>
       </c>
       <c r="B77">
-        <v>0.88</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="C77">
-        <v>0.871</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="D77">
-        <v>0.86399999999999999</v>
+        <v>0.86099999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1972,13 +1972,13 @@
         <v>19</v>
       </c>
       <c r="B78">
-        <v>0.88500000000000001</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="C78">
-        <v>0.879</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="D78">
-        <v>0.85699999999999998</v>
+        <v>0.86099999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1986,13 +1986,13 @@
         <v>19</v>
       </c>
       <c r="B79">
-        <v>0.88400000000000001</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="C79">
-        <v>0.88100000000000001</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="D79">
-        <v>0.85099999999999998</v>
+        <v>0.86099999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2000,13 +2000,13 @@
         <v>19</v>
       </c>
       <c r="B80">
-        <v>0.88600000000000001</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="C80">
-        <v>0.88500000000000001</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="D80">
-        <v>0.85399999999999998</v>
+        <v>0.86299999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2014,10 +2014,10 @@
         <v>19</v>
       </c>
       <c r="B81">
-        <v>0.88200000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="C81">
-        <v>0.88500000000000001</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="D81">
         <v>0.85399999999999998</v>
@@ -2028,13 +2028,13 @@
         <v>20</v>
       </c>
       <c r="B82">
-        <v>0.90900000000000003</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="C82">
-        <v>0.90300000000000002</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="D82">
-        <v>0.90100000000000002</v>
+        <v>0.90800000000000003</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2042,13 +2042,13 @@
         <v>20</v>
       </c>
       <c r="B83">
-        <v>0.90400000000000003</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="C83">
-        <v>0.90400000000000003</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="D83">
-        <v>0.89200000000000002</v>
+        <v>0.90900000000000003</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2056,13 +2056,13 @@
         <v>20</v>
       </c>
       <c r="B84">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="C84">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="D84">
         <v>0.91100000000000003</v>
-      </c>
-      <c r="C84">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="D84">
-        <v>0.89</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2070,13 +2070,13 @@
         <v>20</v>
       </c>
       <c r="B85">
-        <v>0.90400000000000003</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="C85">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="D85">
         <v>0.90200000000000002</v>
-      </c>
-      <c r="D85">
-        <v>0.89500000000000002</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2084,13 +2084,13 @@
         <v>20</v>
       </c>
       <c r="B86">
-        <v>0.90700000000000003</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="C86">
-        <v>0.90100000000000002</v>
+        <v>0.92</v>
       </c>
       <c r="D86">
-        <v>0.89700000000000002</v>
+        <v>0.89600000000000002</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2098,13 +2098,13 @@
         <v>21</v>
       </c>
       <c r="B87">
-        <v>0.879</v>
+        <v>0.874</v>
       </c>
       <c r="C87">
-        <v>0.88100000000000001</v>
+        <v>0.876</v>
       </c>
       <c r="D87">
-        <v>0.88</v>
+        <v>0.88500000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2112,13 +2112,13 @@
         <v>21</v>
       </c>
       <c r="B88">
-        <v>0.873</v>
+        <v>0.88</v>
       </c>
       <c r="C88">
-        <v>0.88200000000000001</v>
+        <v>0.878</v>
       </c>
       <c r="D88">
-        <v>0.88400000000000001</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2126,13 +2126,13 @@
         <v>21</v>
       </c>
       <c r="B89">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="C89">
         <v>0.88</v>
       </c>
-      <c r="C89">
-        <v>0.88500000000000001</v>
-      </c>
       <c r="D89">
-        <v>0.88200000000000001</v>
+        <v>0.88100000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2140,13 +2140,13 @@
         <v>21</v>
       </c>
       <c r="B90">
-        <v>0.877</v>
+        <v>0.872</v>
       </c>
       <c r="C90">
-        <v>0.875</v>
+        <v>0.88</v>
       </c>
       <c r="D90">
-        <v>0.88500000000000001</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2154,13 +2154,13 @@
         <v>21</v>
       </c>
       <c r="B91">
-        <v>0.88</v>
+        <v>0.873</v>
       </c>
       <c r="C91">
-        <v>0.88500000000000001</v>
+        <v>0.876</v>
       </c>
       <c r="D91">
-        <v>0.89100000000000001</v>
+        <v>0.88200000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2168,13 +2168,13 @@
         <v>22</v>
       </c>
       <c r="B92">
-        <v>0.88300000000000001</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="C92">
-        <v>0.88100000000000001</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="D92">
-        <v>0.876</v>
+        <v>0.88600000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2182,13 +2182,13 @@
         <v>22</v>
       </c>
       <c r="B93">
-        <v>0.876</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="C93">
-        <v>0.88800000000000001</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="D93">
-        <v>0.877</v>
+        <v>0.88700000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2196,13 +2196,13 @@
         <v>22</v>
       </c>
       <c r="B94">
-        <v>0.874</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="C94">
-        <v>0.88200000000000001</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="D94">
-        <v>0.876</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2210,13 +2210,13 @@
         <v>22</v>
       </c>
       <c r="B95">
-        <v>0.877</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="C95">
-        <v>0.877</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="D95">
-        <v>0.876</v>
+        <v>0.89300000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2224,13 +2224,13 @@
         <v>22</v>
       </c>
       <c r="B96">
-        <v>0.88500000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="C96">
-        <v>0.878</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="D96">
-        <v>0.878</v>
+        <v>0.89300000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2238,13 +2238,13 @@
         <v>23</v>
       </c>
       <c r="B97">
-        <v>0.90300000000000002</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="C97">
-        <v>0.89</v>
+        <v>0.878</v>
       </c>
       <c r="D97">
-        <v>0.89100000000000001</v>
+        <v>0.86599999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2252,13 +2252,13 @@
         <v>23</v>
       </c>
       <c r="B98">
-        <v>0.90100000000000002</v>
+        <v>0.872</v>
       </c>
       <c r="C98">
-        <v>0.90500000000000003</v>
+        <v>0.875</v>
       </c>
       <c r="D98">
-        <v>0.89200000000000002</v>
+        <v>0.88500000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2266,13 +2266,13 @@
         <v>23</v>
       </c>
       <c r="B99">
-        <v>0.88800000000000001</v>
+        <v>0.877</v>
       </c>
       <c r="C99">
-        <v>0.90100000000000002</v>
+        <v>0.875</v>
       </c>
       <c r="D99">
-        <v>0.90700000000000003</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2280,13 +2280,13 @@
         <v>23</v>
       </c>
       <c r="B100">
-        <v>0.89200000000000002</v>
+        <v>0.87</v>
       </c>
       <c r="C100">
-        <v>0.89500000000000002</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="D100">
-        <v>0.90500000000000003</v>
+        <v>0.88900000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2294,13 +2294,13 @@
         <v>23</v>
       </c>
       <c r="B101">
-        <v>0.91100000000000003</v>
+        <v>0.875</v>
       </c>
       <c r="C101">
-        <v>0.89100000000000001</v>
+        <v>0.873</v>
       </c>
       <c r="D101">
-        <v>0.90600000000000003</v>
+        <v>0.88600000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2308,13 +2308,13 @@
         <v>24</v>
       </c>
       <c r="B102">
-        <v>0.90200000000000002</v>
+        <v>0.878</v>
       </c>
       <c r="C102">
-        <v>0.90200000000000002</v>
+        <v>0.89</v>
       </c>
       <c r="D102">
-        <v>0.90200000000000002</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2322,13 +2322,13 @@
         <v>24</v>
       </c>
       <c r="B103">
-        <v>0.90500000000000003</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="C103">
-        <v>0.89800000000000002</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="D103">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2336,13 +2336,13 @@
         <v>24</v>
       </c>
       <c r="B104">
-        <v>0.89900000000000002</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="C104">
-        <v>0.90300000000000002</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="D104">
-        <v>0.90900000000000003</v>
+        <v>0.89400000000000002</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2350,13 +2350,13 @@
         <v>24</v>
       </c>
       <c r="B105">
-        <v>0.89600000000000002</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="C105">
-        <v>0.91300000000000003</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="D105">
-        <v>0.91</v>
+        <v>0.89700000000000002</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2364,13 +2364,13 @@
         <v>24</v>
       </c>
       <c r="B106">
-        <v>0.90500000000000003</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="C106">
-        <v>0.91200000000000003</v>
+        <v>0.876</v>
       </c>
       <c r="D106">
-        <v>0.90600000000000003</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2378,13 +2378,13 @@
         <v>25</v>
       </c>
       <c r="B107">
-        <v>0.89700000000000002</v>
+        <v>0.876</v>
       </c>
       <c r="C107">
-        <v>0.90400000000000003</v>
+        <v>0.88</v>
       </c>
       <c r="D107">
-        <v>0.90500000000000003</v>
+        <v>0.88200000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2392,13 +2392,13 @@
         <v>25</v>
       </c>
       <c r="B108">
-        <v>0.89200000000000002</v>
+        <v>0.876</v>
       </c>
       <c r="C108">
-        <v>0.90300000000000002</v>
+        <v>0.879</v>
       </c>
       <c r="D108">
-        <v>0.90100000000000002</v>
+        <v>0.86299999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2406,13 +2406,13 @@
         <v>25</v>
       </c>
       <c r="B109">
-        <v>0.89600000000000002</v>
+        <v>0.873</v>
       </c>
       <c r="C109">
-        <v>0.89400000000000002</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="D109">
-        <v>0.89900000000000002</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2420,13 +2420,13 @@
         <v>25</v>
       </c>
       <c r="B110">
-        <v>0.89600000000000002</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="C110">
-        <v>0.9</v>
+        <v>0.877</v>
       </c>
       <c r="D110">
-        <v>0.90700000000000003</v>
+        <v>0.86799999999999999</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2434,13 +2434,13 @@
         <v>25</v>
       </c>
       <c r="B111">
-        <v>0.90500000000000003</v>
+        <v>0.88</v>
       </c>
       <c r="C111">
-        <v>0.90500000000000003</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="D111">
-        <v>0.90800000000000003</v>
+        <v>0.878</v>
       </c>
     </row>
   </sheetData>
@@ -2676,7 +2676,7 @@
   <dimension ref="A1:D331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2703,7 +2703,7 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>0.85899999999999999</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
@@ -2717,7 +2717,7 @@
         <v>75</v>
       </c>
       <c r="C3">
-        <v>0.86</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="D3" t="s">
         <v>80</v>
@@ -2731,7 +2731,7 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>0.87</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="D4" t="s">
         <v>80</v>
@@ -2745,7 +2745,7 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>0.86199999999999999</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="D5" t="s">
         <v>80</v>
@@ -2759,7 +2759,7 @@
         <v>75</v>
       </c>
       <c r="C6">
-        <v>0.86699999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="D6" t="s">
         <v>80</v>
@@ -2773,7 +2773,7 @@
         <v>50</v>
       </c>
       <c r="C7">
-        <v>0.86299999999999999</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="D7" t="s">
         <v>80</v>
@@ -2787,7 +2787,7 @@
         <v>100</v>
       </c>
       <c r="C8">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="D8" t="s">
         <v>80</v>
@@ -2801,7 +2801,7 @@
         <v>75</v>
       </c>
       <c r="C9">
-        <v>0.86699999999999999</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="D9" t="s">
         <v>80</v>
@@ -2815,7 +2815,7 @@
         <v>50</v>
       </c>
       <c r="C10">
-        <v>0.85599999999999998</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="D10" t="s">
         <v>80</v>
@@ -2829,7 +2829,7 @@
         <v>100</v>
       </c>
       <c r="C11">
-        <v>0.86599999999999999</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="D11" t="s">
         <v>80</v>
@@ -2843,7 +2843,7 @@
         <v>75</v>
       </c>
       <c r="C12">
-        <v>0.86299999999999999</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="D12" t="s">
         <v>80</v>
@@ -2857,7 +2857,7 @@
         <v>50</v>
       </c>
       <c r="C13">
-        <v>0.86699999999999999</v>
+        <v>0.81</v>
       </c>
       <c r="D13" t="s">
         <v>80</v>
@@ -2871,7 +2871,7 @@
         <v>100</v>
       </c>
       <c r="C14">
-        <v>0.86299999999999999</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="D14" t="s">
         <v>80</v>
@@ -2885,7 +2885,7 @@
         <v>75</v>
       </c>
       <c r="C15">
-        <v>0.86199999999999999</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="D15" t="s">
         <v>80</v>
@@ -2899,7 +2899,7 @@
         <v>50</v>
       </c>
       <c r="C16">
-        <v>0.85199999999999998</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="D16" t="s">
         <v>80</v>
@@ -2913,7 +2913,7 @@
         <v>100</v>
       </c>
       <c r="C17">
-        <v>0.88</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="D17" t="s">
         <v>80</v>
@@ -2927,7 +2927,7 @@
         <v>75</v>
       </c>
       <c r="C18">
-        <v>0.877</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="D18" t="s">
         <v>80</v>
@@ -2941,7 +2941,7 @@
         <v>50</v>
       </c>
       <c r="C19">
-        <v>0.88400000000000001</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
@@ -2955,7 +2955,7 @@
         <v>100</v>
       </c>
       <c r="C20">
-        <v>0.88600000000000001</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="D20" t="s">
         <v>80</v>
@@ -2969,7 +2969,7 @@
         <v>75</v>
       </c>
       <c r="C21">
-        <v>0.871</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="D21" t="s">
         <v>80</v>
@@ -2983,7 +2983,7 @@
         <v>50</v>
       </c>
       <c r="C22">
-        <v>0.88400000000000001</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="D22" t="s">
         <v>80</v>
@@ -2997,7 +2997,7 @@
         <v>100</v>
       </c>
       <c r="C23">
-        <v>0.876</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="D23" t="s">
         <v>80</v>
@@ -3011,7 +3011,7 @@
         <v>75</v>
       </c>
       <c r="C24">
-        <v>0.87</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="D24" t="s">
         <v>80</v>
@@ -3025,7 +3025,7 @@
         <v>50</v>
       </c>
       <c r="C25">
-        <v>0.88100000000000001</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="D25" t="s">
         <v>80</v>
@@ -3039,7 +3039,7 @@
         <v>100</v>
       </c>
       <c r="C26">
-        <v>0.88</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="D26" t="s">
         <v>80</v>
@@ -3053,7 +3053,7 @@
         <v>75</v>
       </c>
       <c r="C27">
-        <v>0.877</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="D27" t="s">
         <v>80</v>
@@ -3067,7 +3067,7 @@
         <v>50</v>
       </c>
       <c r="C28">
-        <v>0.879</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="D28" t="s">
         <v>80</v>
@@ -3081,7 +3081,7 @@
         <v>100</v>
       </c>
       <c r="C29">
-        <v>0.88200000000000001</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="D29" t="s">
         <v>80</v>
@@ -3095,7 +3095,7 @@
         <v>75</v>
       </c>
       <c r="C30">
-        <v>0.86799999999999999</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="D30" t="s">
         <v>80</v>
@@ -3109,7 +3109,7 @@
         <v>50</v>
       </c>
       <c r="C31">
-        <v>0.877</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="D31" t="s">
         <v>80</v>
@@ -3123,7 +3123,7 @@
         <v>100</v>
       </c>
       <c r="C32">
-        <v>0.88700000000000001</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="D32" t="s">
         <v>80</v>
@@ -3137,7 +3137,7 @@
         <v>75</v>
       </c>
       <c r="C33">
-        <v>0.88400000000000001</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="D33" t="s">
         <v>80</v>
@@ -3151,7 +3151,7 @@
         <v>50</v>
       </c>
       <c r="C34">
-        <v>0.89700000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="D34" t="s">
         <v>80</v>
@@ -3165,7 +3165,7 @@
         <v>100</v>
       </c>
       <c r="C35">
-        <v>0.88</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="D35" t="s">
         <v>80</v>
@@ -3179,7 +3179,7 @@
         <v>75</v>
       </c>
       <c r="C36">
-        <v>0.89</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="D36" t="s">
         <v>80</v>
@@ -3193,7 +3193,7 @@
         <v>50</v>
       </c>
       <c r="C37">
-        <v>0.89</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="D37" t="s">
         <v>80</v>
@@ -3207,7 +3207,7 @@
         <v>100</v>
       </c>
       <c r="C38">
-        <v>0.88500000000000001</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="D38" t="s">
         <v>80</v>
@@ -3221,7 +3221,7 @@
         <v>75</v>
       </c>
       <c r="C39">
-        <v>0.88500000000000001</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="D39" t="s">
         <v>80</v>
@@ -3235,7 +3235,7 @@
         <v>50</v>
       </c>
       <c r="C40">
-        <v>0.89900000000000002</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="D40" t="s">
         <v>80</v>
@@ -3249,7 +3249,7 @@
         <v>100</v>
       </c>
       <c r="C41">
-        <v>0.88700000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="D41" t="s">
         <v>80</v>
@@ -3263,7 +3263,7 @@
         <v>75</v>
       </c>
       <c r="C42">
-        <v>0.88400000000000001</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="D42" t="s">
         <v>80</v>
@@ -3277,7 +3277,7 @@
         <v>50</v>
       </c>
       <c r="C43">
-        <v>0.90600000000000003</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="D43" t="s">
         <v>80</v>
@@ -3291,7 +3291,7 @@
         <v>100</v>
       </c>
       <c r="C44">
-        <v>0.89300000000000002</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="D44" t="s">
         <v>80</v>
@@ -3305,7 +3305,7 @@
         <v>75</v>
       </c>
       <c r="C45">
-        <v>0.88600000000000001</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="D45" t="s">
         <v>80</v>
@@ -3319,7 +3319,7 @@
         <v>50</v>
       </c>
       <c r="C46">
-        <v>0.89300000000000002</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="D46" t="s">
         <v>80</v>
@@ -3333,7 +3333,7 @@
         <v>100</v>
       </c>
       <c r="C47">
-        <v>0.86299999999999999</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="D47" t="s">
         <v>80</v>
@@ -3347,7 +3347,7 @@
         <v>75</v>
       </c>
       <c r="C48">
-        <v>0.85799999999999998</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="D48" t="s">
         <v>80</v>
@@ -3361,7 +3361,7 @@
         <v>50</v>
       </c>
       <c r="C49">
-        <v>0.873</v>
+        <v>0.84</v>
       </c>
       <c r="D49" t="s">
         <v>80</v>
@@ -3375,7 +3375,7 @@
         <v>100</v>
       </c>
       <c r="C50">
-        <v>0.873</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="D50" t="s">
         <v>80</v>
@@ -3389,7 +3389,7 @@
         <v>75</v>
       </c>
       <c r="C51">
-        <v>0.86899999999999999</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="D51" t="s">
         <v>80</v>
@@ -3403,7 +3403,7 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>0.872</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="D52" t="s">
         <v>80</v>
@@ -3417,7 +3417,7 @@
         <v>100</v>
       </c>
       <c r="C53">
-        <v>0.874</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="D53" t="s">
         <v>80</v>
@@ -3431,7 +3431,7 @@
         <v>75</v>
       </c>
       <c r="C54">
-        <v>0.86299999999999999</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="D54" t="s">
         <v>80</v>
@@ -3445,7 +3445,7 @@
         <v>50</v>
       </c>
       <c r="C55">
-        <v>0.872</v>
+        <v>0.84</v>
       </c>
       <c r="D55" t="s">
         <v>80</v>
@@ -3459,7 +3459,7 @@
         <v>100</v>
       </c>
       <c r="C56">
-        <v>0.85799999999999998</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="D56" t="s">
         <v>80</v>
@@ -3473,7 +3473,7 @@
         <v>75</v>
       </c>
       <c r="C57">
-        <v>0.85199999999999998</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="D57" t="s">
         <v>80</v>
@@ -3487,7 +3487,7 @@
         <v>50</v>
       </c>
       <c r="C58">
-        <v>0.86899999999999999</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="D58" t="s">
         <v>80</v>
@@ -3501,7 +3501,7 @@
         <v>100</v>
       </c>
       <c r="C59">
-        <v>0.86299999999999999</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="D59" t="s">
         <v>80</v>
@@ -3515,7 +3515,7 @@
         <v>75</v>
       </c>
       <c r="C60">
-        <v>0.86199999999999999</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="D60" t="s">
         <v>80</v>
@@ -3529,7 +3529,7 @@
         <v>50</v>
       </c>
       <c r="C61">
-        <v>0.88700000000000001</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="D61" t="s">
         <v>80</v>
@@ -3543,7 +3543,7 @@
         <v>100</v>
       </c>
       <c r="C62">
-        <v>0.875</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="D62" t="s">
         <v>80</v>
@@ -3557,7 +3557,7 @@
         <v>75</v>
       </c>
       <c r="C63">
-        <v>0.879</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="D63" t="s">
         <v>80</v>
@@ -3571,7 +3571,7 @@
         <v>50</v>
       </c>
       <c r="C64">
-        <v>0.86599999999999999</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="D64" t="s">
         <v>80</v>
@@ -3585,7 +3585,7 @@
         <v>100</v>
       </c>
       <c r="C65">
-        <v>0.86899999999999999</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="D65" t="s">
         <v>80</v>
@@ -3599,7 +3599,7 @@
         <v>75</v>
       </c>
       <c r="C66">
-        <v>0.874</v>
+        <v>0.84</v>
       </c>
       <c r="D66" t="s">
         <v>80</v>
@@ -3613,7 +3613,7 @@
         <v>50</v>
       </c>
       <c r="C67">
-        <v>0.88200000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="D67" t="s">
         <v>80</v>
@@ -3627,7 +3627,7 @@
         <v>100</v>
       </c>
       <c r="C68">
-        <v>0.86799999999999999</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="D68" t="s">
         <v>80</v>
@@ -3641,7 +3641,7 @@
         <v>75</v>
       </c>
       <c r="C69">
-        <v>0.874</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="D69" t="s">
         <v>80</v>
@@ -3655,7 +3655,7 @@
         <v>50</v>
       </c>
       <c r="C70">
-        <v>0.88700000000000001</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="D70" t="s">
         <v>80</v>
@@ -3669,7 +3669,7 @@
         <v>100</v>
       </c>
       <c r="C71">
-        <v>0.86599999999999999</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="D71" t="s">
         <v>80</v>
@@ -3683,7 +3683,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>0.86199999999999999</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="D72" t="s">
         <v>80</v>
@@ -3697,7 +3697,7 @@
         <v>50</v>
       </c>
       <c r="C73">
-        <v>0.875</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="D73" t="s">
         <v>80</v>
@@ -3711,7 +3711,7 @@
         <v>100</v>
       </c>
       <c r="C74">
-        <v>0.873</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="D74" t="s">
         <v>80</v>
@@ -3725,7 +3725,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>0.874</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="D75" t="s">
         <v>80</v>
@@ -3739,7 +3739,7 @@
         <v>50</v>
       </c>
       <c r="C76">
-        <v>0.872</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="D76" t="s">
         <v>80</v>
@@ -3753,7 +3753,7 @@
         <v>100</v>
       </c>
       <c r="C77">
-        <v>0.88800000000000001</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="D77" t="s">
         <v>80</v>
@@ -3767,7 +3767,7 @@
         <v>75</v>
       </c>
       <c r="C78">
-        <v>0.89200000000000002</v>
+        <v>0.875</v>
       </c>
       <c r="D78" t="s">
         <v>80</v>
@@ -3781,7 +3781,7 @@
         <v>50</v>
       </c>
       <c r="C79">
-        <v>0.89400000000000002</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="D79" t="s">
         <v>80</v>
@@ -3795,7 +3795,7 @@
         <v>100</v>
       </c>
       <c r="C80">
-        <v>0.88700000000000001</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="D80" t="s">
         <v>80</v>
@@ -3809,7 +3809,7 @@
         <v>75</v>
       </c>
       <c r="C81">
-        <v>0.89900000000000002</v>
+        <v>0.876</v>
       </c>
       <c r="D81" t="s">
         <v>80</v>
@@ -3823,7 +3823,7 @@
         <v>50</v>
       </c>
       <c r="C82">
-        <v>0.878</v>
+        <v>0.872</v>
       </c>
       <c r="D82" t="s">
         <v>80</v>
@@ -3837,7 +3837,7 @@
         <v>100</v>
       </c>
       <c r="C83">
-        <v>0.89200000000000002</v>
+        <v>0.876</v>
       </c>
       <c r="D83" t="s">
         <v>80</v>
@@ -3851,7 +3851,7 @@
         <v>75</v>
       </c>
       <c r="C84">
-        <v>0.88900000000000001</v>
+        <v>0.879</v>
       </c>
       <c r="D84" t="s">
         <v>80</v>
@@ -3865,7 +3865,7 @@
         <v>50</v>
       </c>
       <c r="C85">
-        <v>0.88500000000000001</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="D85" t="s">
         <v>80</v>
@@ -3879,7 +3879,7 @@
         <v>100</v>
       </c>
       <c r="C86">
-        <v>0.89300000000000002</v>
+        <v>0.87</v>
       </c>
       <c r="D86" t="s">
         <v>80</v>
@@ -3893,7 +3893,7 @@
         <v>75</v>
       </c>
       <c r="C87">
-        <v>0.88300000000000001</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="D87" t="s">
         <v>80</v>
@@ -3907,7 +3907,7 @@
         <v>50</v>
       </c>
       <c r="C88">
-        <v>0.88200000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="D88" t="s">
         <v>80</v>
@@ -3921,7 +3921,7 @@
         <v>100</v>
       </c>
       <c r="C89">
-        <v>0.89700000000000002</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="D89" t="s">
         <v>80</v>
@@ -3935,7 +3935,7 @@
         <v>75</v>
       </c>
       <c r="C90">
-        <v>0.89200000000000002</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="D90" t="s">
         <v>80</v>
@@ -3949,7 +3949,7 @@
         <v>50</v>
       </c>
       <c r="C91">
-        <v>0.88600000000000001</v>
+        <v>0.878</v>
       </c>
       <c r="D91" t="s">
         <v>80</v>
@@ -3963,7 +3963,7 @@
         <v>100</v>
       </c>
       <c r="C92">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="D92" t="s">
         <v>80</v>
@@ -3977,7 +3977,7 @@
         <v>75</v>
       </c>
       <c r="C93">
-        <v>0.92800000000000005</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="D93" t="s">
         <v>80</v>
@@ -3991,7 +3991,7 @@
         <v>50</v>
       </c>
       <c r="C94">
-        <v>0.92</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="D94" t="s">
         <v>80</v>
@@ -4005,7 +4005,7 @@
         <v>100</v>
       </c>
       <c r="C95">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="D95" t="s">
         <v>80</v>
@@ -4019,7 +4019,7 @@
         <v>75</v>
       </c>
       <c r="C96">
-        <v>0.92300000000000004</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="D96" t="s">
         <v>80</v>
@@ -4033,7 +4033,7 @@
         <v>50</v>
       </c>
       <c r="C97">
-        <v>0.92</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="D97" t="s">
         <v>80</v>
@@ -4047,7 +4047,7 @@
         <v>100</v>
       </c>
       <c r="C98">
-        <v>0.91600000000000004</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="D98" t="s">
         <v>80</v>
@@ -4061,7 +4061,7 @@
         <v>75</v>
       </c>
       <c r="C99">
-        <v>0.92700000000000005</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="D99" t="s">
         <v>80</v>
@@ -4075,7 +4075,7 @@
         <v>50</v>
       </c>
       <c r="C100">
-        <v>0.92100000000000004</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="D100" t="s">
         <v>80</v>
@@ -4089,7 +4089,7 @@
         <v>100</v>
       </c>
       <c r="C101">
-        <v>0.91200000000000003</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="D101" t="s">
         <v>80</v>
@@ -4103,7 +4103,7 @@
         <v>75</v>
       </c>
       <c r="C102">
-        <v>0.92500000000000004</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="D102" t="s">
         <v>80</v>
@@ -4117,7 +4117,7 @@
         <v>50</v>
       </c>
       <c r="C103">
-        <v>0.92</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="D103" t="s">
         <v>80</v>
@@ -4131,7 +4131,7 @@
         <v>100</v>
       </c>
       <c r="C104">
-        <v>0.91800000000000004</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="D104" t="s">
         <v>80</v>
@@ -4145,7 +4145,7 @@
         <v>75</v>
       </c>
       <c r="C105">
-        <v>0.92100000000000004</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="D105" t="s">
         <v>80</v>
@@ -4159,7 +4159,7 @@
         <v>50</v>
       </c>
       <c r="C106">
-        <v>0.92400000000000004</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="D106" t="s">
         <v>80</v>
@@ -4173,7 +4173,7 @@
         <v>100</v>
       </c>
       <c r="C107">
-        <v>0.92400000000000004</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="D107" t="s">
         <v>80</v>
@@ -4187,7 +4187,7 @@
         <v>75</v>
       </c>
       <c r="C108">
-        <v>0.93200000000000005</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="D108" t="s">
         <v>80</v>
@@ -4201,7 +4201,7 @@
         <v>50</v>
       </c>
       <c r="C109">
-        <v>0.92600000000000005</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="D109" t="s">
         <v>80</v>
@@ -4215,7 +4215,7 @@
         <v>100</v>
       </c>
       <c r="C110">
-        <v>0.93700000000000006</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="D110" t="s">
         <v>80</v>
@@ -4229,7 +4229,7 @@
         <v>75</v>
       </c>
       <c r="C111">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="D111" t="s">
         <v>80</v>
@@ -4243,7 +4243,7 @@
         <v>50</v>
       </c>
       <c r="C112">
-        <v>0.93200000000000005</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="D112" t="s">
         <v>80</v>
@@ -4257,7 +4257,7 @@
         <v>100</v>
       </c>
       <c r="C113">
-        <v>0.92500000000000004</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="D113" t="s">
         <v>80</v>
@@ -4271,7 +4271,7 @@
         <v>75</v>
       </c>
       <c r="C114">
-        <v>0.92700000000000005</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="D114" t="s">
         <v>80</v>
@@ -4285,7 +4285,7 @@
         <v>50</v>
       </c>
       <c r="C115">
-        <v>0.93600000000000005</v>
+        <v>0.92</v>
       </c>
       <c r="D115" t="s">
         <v>80</v>
@@ -4299,7 +4299,7 @@
         <v>100</v>
       </c>
       <c r="C116">
-        <v>0.92300000000000004</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="D116" t="s">
         <v>80</v>
@@ -4313,7 +4313,7 @@
         <v>75</v>
       </c>
       <c r="C117">
-        <v>0.92200000000000004</v>
+        <v>0.91</v>
       </c>
       <c r="D117" t="s">
         <v>80</v>
@@ -4327,7 +4327,7 @@
         <v>50</v>
       </c>
       <c r="C118">
-        <v>0.93100000000000005</v>
+        <v>0.91</v>
       </c>
       <c r="D118" t="s">
         <v>80</v>
@@ -4341,7 +4341,7 @@
         <v>100</v>
       </c>
       <c r="C119">
-        <v>0.92600000000000005</v>
+        <v>0.92</v>
       </c>
       <c r="D119" t="s">
         <v>80</v>
@@ -4355,7 +4355,7 @@
         <v>75</v>
       </c>
       <c r="C120">
-        <v>0.92800000000000005</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="D120" t="s">
         <v>80</v>
@@ -4369,7 +4369,7 @@
         <v>50</v>
       </c>
       <c r="C121">
-        <v>0.93100000000000005</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="D121" t="s">
         <v>80</v>
@@ -4383,7 +4383,7 @@
         <v>100</v>
       </c>
       <c r="C122">
-        <v>0.89700000000000002</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="D122" t="s">
         <v>80</v>
@@ -4397,7 +4397,7 @@
         <v>75</v>
       </c>
       <c r="C123">
-        <v>0.90500000000000003</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="D123" t="s">
         <v>80</v>
@@ -4411,7 +4411,7 @@
         <v>50</v>
       </c>
       <c r="C124">
-        <v>0.88500000000000001</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="D124" t="s">
         <v>80</v>
@@ -4425,7 +4425,7 @@
         <v>100</v>
       </c>
       <c r="C125">
-        <v>0.89700000000000002</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="D125" t="s">
         <v>80</v>
@@ -4439,7 +4439,7 @@
         <v>75</v>
       </c>
       <c r="C126">
-        <v>0.90600000000000003</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="D126" t="s">
         <v>80</v>
@@ -4453,7 +4453,7 @@
         <v>50</v>
       </c>
       <c r="C127">
-        <v>0.90300000000000002</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="D127" t="s">
         <v>80</v>
@@ -4467,7 +4467,7 @@
         <v>100</v>
       </c>
       <c r="C128">
-        <v>0.89800000000000002</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="D128" t="s">
         <v>80</v>
@@ -4481,7 +4481,7 @@
         <v>75</v>
       </c>
       <c r="C129">
-        <v>0.90200000000000002</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="D129" t="s">
         <v>80</v>
@@ -4495,7 +4495,7 @@
         <v>50</v>
       </c>
       <c r="C130">
-        <v>0.89400000000000002</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="D130" t="s">
         <v>80</v>
@@ -4509,7 +4509,7 @@
         <v>100</v>
       </c>
       <c r="C131">
-        <v>0.89900000000000002</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="D131" t="s">
         <v>80</v>
@@ -4523,7 +4523,7 @@
         <v>75</v>
       </c>
       <c r="C132">
-        <v>0.9</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="D132" t="s">
         <v>80</v>
@@ -4537,7 +4537,7 @@
         <v>50</v>
       </c>
       <c r="C133">
-        <v>0.90500000000000003</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="D133" t="s">
         <v>80</v>
@@ -4565,7 +4565,7 @@
         <v>75</v>
       </c>
       <c r="C135">
-        <v>0.89</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="D135" t="s">
         <v>80</v>
@@ -4579,7 +4579,7 @@
         <v>50</v>
       </c>
       <c r="C136">
-        <v>0.90800000000000003</v>
+        <v>0.91</v>
       </c>
       <c r="D136" t="s">
         <v>80</v>
@@ -4593,7 +4593,7 @@
         <v>100</v>
       </c>
       <c r="C137">
-        <v>0.88200000000000001</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="D137" t="s">
         <v>80</v>
@@ -4607,7 +4607,7 @@
         <v>75</v>
       </c>
       <c r="C138">
-        <v>0.88400000000000001</v>
+        <v>0.871</v>
       </c>
       <c r="D138" t="s">
         <v>80</v>
@@ -4621,7 +4621,7 @@
         <v>50</v>
       </c>
       <c r="C139">
-        <v>0.879</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="D139" t="s">
         <v>80</v>
@@ -4635,7 +4635,7 @@
         <v>100</v>
       </c>
       <c r="C140">
-        <v>0.879</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="D140" t="s">
         <v>80</v>
@@ -4649,7 +4649,7 @@
         <v>75</v>
       </c>
       <c r="C141">
-        <v>0.88800000000000001</v>
+        <v>0.878</v>
       </c>
       <c r="D141" t="s">
         <v>80</v>
@@ -4663,7 +4663,7 @@
         <v>50</v>
       </c>
       <c r="C142">
-        <v>0.88900000000000001</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="D142" t="s">
         <v>80</v>
@@ -4677,7 +4677,7 @@
         <v>100</v>
       </c>
       <c r="C143">
-        <v>0.88600000000000001</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="D143" t="s">
         <v>80</v>
@@ -4691,7 +4691,7 @@
         <v>75</v>
       </c>
       <c r="C144">
-        <v>0.89300000000000002</v>
+        <v>0.875</v>
       </c>
       <c r="D144" t="s">
         <v>80</v>
@@ -4705,7 +4705,7 @@
         <v>50</v>
       </c>
       <c r="C145">
-        <v>0.89100000000000001</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="D145" t="s">
         <v>80</v>
@@ -4719,7 +4719,7 @@
         <v>100</v>
       </c>
       <c r="C146">
-        <v>0.88600000000000001</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="D146" t="s">
         <v>80</v>
@@ -4733,7 +4733,7 @@
         <v>75</v>
       </c>
       <c r="C147">
-        <v>0.89200000000000002</v>
+        <v>0.876</v>
       </c>
       <c r="D147" t="s">
         <v>80</v>
@@ -4747,7 +4747,7 @@
         <v>50</v>
       </c>
       <c r="C148">
-        <v>0.89200000000000002</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="D148" t="s">
         <v>80</v>
@@ -4761,7 +4761,7 @@
         <v>100</v>
       </c>
       <c r="C149">
-        <v>0.88300000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="D149" t="s">
         <v>80</v>
@@ -4775,7 +4775,7 @@
         <v>75</v>
       </c>
       <c r="C150">
-        <v>0.89</v>
+        <v>0.874</v>
       </c>
       <c r="D150" t="s">
         <v>80</v>
@@ -4789,7 +4789,7 @@
         <v>50</v>
       </c>
       <c r="C151">
-        <v>0.88500000000000001</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="D151" t="s">
         <v>80</v>
@@ -4803,7 +4803,7 @@
         <v>100</v>
       </c>
       <c r="C152">
-        <v>0.86299999999999999</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="D152" t="s">
         <v>80</v>
@@ -4817,7 +4817,7 @@
         <v>75</v>
       </c>
       <c r="C153">
-        <v>0.86799999999999999</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="D153" t="s">
         <v>80</v>
@@ -4831,7 +4831,7 @@
         <v>50</v>
       </c>
       <c r="C154">
-        <v>0.86099999999999999</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="D154" t="s">
         <v>80</v>
@@ -4845,7 +4845,7 @@
         <v>100</v>
       </c>
       <c r="C155">
-        <v>0.85799999999999998</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="D155" t="s">
         <v>80</v>
@@ -4859,7 +4859,7 @@
         <v>75</v>
       </c>
       <c r="C156">
-        <v>0.86199999999999999</v>
+        <v>0.873</v>
       </c>
       <c r="D156" t="s">
         <v>80</v>
@@ -4873,7 +4873,7 @@
         <v>50</v>
       </c>
       <c r="C157">
-        <v>0.85599999999999998</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="D157" t="s">
         <v>80</v>
@@ -4887,7 +4887,7 @@
         <v>100</v>
       </c>
       <c r="C158">
-        <v>0.85399999999999998</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="D158" t="s">
         <v>80</v>
@@ -4901,7 +4901,7 @@
         <v>75</v>
       </c>
       <c r="C159">
-        <v>0.86499999999999999</v>
+        <v>0.877</v>
       </c>
       <c r="D159" t="s">
         <v>80</v>
@@ -4915,7 +4915,7 @@
         <v>50</v>
       </c>
       <c r="C160">
-        <v>0.86299999999999999</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="D160" t="s">
         <v>80</v>
@@ -4929,7 +4929,7 @@
         <v>100</v>
       </c>
       <c r="C161">
-        <v>0.85799999999999998</v>
+        <v>0.86</v>
       </c>
       <c r="D161" t="s">
         <v>80</v>
@@ -4943,7 +4943,7 @@
         <v>75</v>
       </c>
       <c r="C162">
-        <v>0.85899999999999999</v>
+        <v>0.878</v>
       </c>
       <c r="D162" t="s">
         <v>80</v>
@@ -4957,7 +4957,7 @@
         <v>50</v>
       </c>
       <c r="C163">
-        <v>0.85499999999999998</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="D163" t="s">
         <v>80</v>
@@ -4971,7 +4971,7 @@
         <v>100</v>
       </c>
       <c r="C164">
-        <v>0.86099999999999999</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="D164" t="s">
         <v>80</v>
@@ -4985,7 +4985,7 @@
         <v>75</v>
       </c>
       <c r="C165">
-        <v>0.86199999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="D165" t="s">
         <v>80</v>
@@ -4999,7 +4999,7 @@
         <v>50</v>
       </c>
       <c r="C166">
-        <v>0.85199999999999998</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="D166" t="s">
         <v>80</v>
@@ -5013,7 +5013,7 @@
         <v>100</v>
       </c>
       <c r="C167">
-        <v>0.86099999999999999</v>
+        <v>0.879</v>
       </c>
       <c r="D167" t="s">
         <v>80</v>
@@ -5027,7 +5027,7 @@
         <v>75</v>
       </c>
       <c r="C168">
-        <v>0.871</v>
+        <v>0.87</v>
       </c>
       <c r="D168" t="s">
         <v>80</v>
@@ -5041,7 +5041,7 @@
         <v>50</v>
       </c>
       <c r="C169">
-        <v>0.873</v>
+        <v>0.872</v>
       </c>
       <c r="D169" t="s">
         <v>80</v>
@@ -5055,7 +5055,7 @@
         <v>100</v>
       </c>
       <c r="C170">
-        <v>0.86799999999999999</v>
+        <v>0.879</v>
       </c>
       <c r="D170" t="s">
         <v>80</v>
@@ -5069,7 +5069,7 @@
         <v>75</v>
       </c>
       <c r="C171">
-        <v>0.86</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="D171" t="s">
         <v>80</v>
@@ -5083,7 +5083,7 @@
         <v>50</v>
       </c>
       <c r="C172">
-        <v>0.876</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="D172" t="s">
         <v>80</v>
@@ -5097,7 +5097,7 @@
         <v>100</v>
       </c>
       <c r="C173">
-        <v>0.85699999999999998</v>
+        <v>0.875</v>
       </c>
       <c r="D173" t="s">
         <v>80</v>
@@ -5111,7 +5111,7 @@
         <v>75</v>
       </c>
       <c r="C174">
-        <v>0.86199999999999999</v>
+        <v>0.878</v>
       </c>
       <c r="D174" t="s">
         <v>80</v>
@@ -5125,7 +5125,7 @@
         <v>50</v>
       </c>
       <c r="C175">
-        <v>0.88</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="D175" t="s">
         <v>80</v>
@@ -5139,7 +5139,7 @@
         <v>100</v>
       </c>
       <c r="C176">
-        <v>0.87</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="D176" t="s">
         <v>80</v>
@@ -5153,7 +5153,7 @@
         <v>75</v>
       </c>
       <c r="C177">
-        <v>0.86799999999999999</v>
+        <v>0.872</v>
       </c>
       <c r="D177" t="s">
         <v>80</v>
@@ -5167,7 +5167,7 @@
         <v>50</v>
       </c>
       <c r="C178">
-        <v>0.874</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="D178" t="s">
         <v>80</v>
@@ -5181,7 +5181,7 @@
         <v>100</v>
       </c>
       <c r="C179">
-        <v>0.86699999999999999</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="D179" t="s">
         <v>80</v>
@@ -5195,7 +5195,7 @@
         <v>75</v>
       </c>
       <c r="C180">
-        <v>0.874</v>
+        <v>0.877</v>
       </c>
       <c r="D180" t="s">
         <v>80</v>
@@ -5209,7 +5209,7 @@
         <v>50</v>
       </c>
       <c r="C181">
-        <v>0.877</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="D181" t="s">
         <v>80</v>
@@ -5223,7 +5223,7 @@
         <v>100</v>
       </c>
       <c r="C182">
-        <v>0.84</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="D182" t="s">
         <v>80</v>
@@ -5237,7 +5237,7 @@
         <v>75</v>
       </c>
       <c r="C183">
-        <v>0.83599999999999997</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="D183" t="s">
         <v>80</v>
@@ -5251,7 +5251,7 @@
         <v>50</v>
       </c>
       <c r="C184">
-        <v>0.84699999999999998</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="D184" t="s">
         <v>80</v>
@@ -5265,7 +5265,7 @@
         <v>100</v>
       </c>
       <c r="C185">
-        <v>0.83399999999999996</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="D185" t="s">
         <v>80</v>
@@ -5279,7 +5279,7 @@
         <v>75</v>
       </c>
       <c r="C186">
-        <v>0.83599999999999997</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="D186" t="s">
         <v>80</v>
@@ -5293,7 +5293,7 @@
         <v>50</v>
       </c>
       <c r="C187">
-        <v>0.83699999999999997</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="D187" t="s">
         <v>80</v>
@@ -5307,7 +5307,7 @@
         <v>100</v>
       </c>
       <c r="C188">
-        <v>0.83199999999999996</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="D188" t="s">
         <v>80</v>
@@ -5321,7 +5321,7 @@
         <v>75</v>
       </c>
       <c r="C189">
-        <v>0.84099999999999997</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="D189" t="s">
         <v>80</v>
@@ -5335,7 +5335,7 @@
         <v>50</v>
       </c>
       <c r="C190">
-        <v>0.83599999999999997</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="D190" t="s">
         <v>80</v>
@@ -5349,7 +5349,7 @@
         <v>100</v>
       </c>
       <c r="C191">
-        <v>0.83699999999999997</v>
+        <v>0.86</v>
       </c>
       <c r="D191" t="s">
         <v>80</v>
@@ -5363,7 +5363,7 @@
         <v>75</v>
       </c>
       <c r="C192">
-        <v>0.82899999999999996</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="D192" t="s">
         <v>80</v>
@@ -5377,7 +5377,7 @@
         <v>50</v>
       </c>
       <c r="C193">
-        <v>0.84299999999999997</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="D193" t="s">
         <v>80</v>
@@ -5391,7 +5391,7 @@
         <v>100</v>
       </c>
       <c r="C194">
-        <v>0.84499999999999997</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="D194" t="s">
         <v>80</v>
@@ -5405,7 +5405,7 @@
         <v>75</v>
       </c>
       <c r="C195">
-        <v>0.83899999999999997</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="D195" t="s">
         <v>80</v>
@@ -5419,7 +5419,7 @@
         <v>50</v>
       </c>
       <c r="C196">
-        <v>0.84299999999999997</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="D196" t="s">
         <v>80</v>
@@ -5433,7 +5433,7 @@
         <v>100</v>
       </c>
       <c r="C197">
-        <v>0.86899999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="D197" t="s">
         <v>80</v>
@@ -5447,7 +5447,7 @@
         <v>75</v>
       </c>
       <c r="C198">
-        <v>0.86</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="D198" t="s">
         <v>80</v>
@@ -5461,7 +5461,7 @@
         <v>50</v>
       </c>
       <c r="C199">
-        <v>0.85399999999999998</v>
+        <v>0.879</v>
       </c>
       <c r="D199" t="s">
         <v>80</v>
@@ -5475,7 +5475,7 @@
         <v>100</v>
       </c>
       <c r="C200">
-        <v>0.85799999999999998</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="D200" t="s">
         <v>80</v>
@@ -5489,7 +5489,7 @@
         <v>75</v>
       </c>
       <c r="C201">
-        <v>0.85199999999999998</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="D201" t="s">
         <v>80</v>
@@ -5503,7 +5503,7 @@
         <v>50</v>
       </c>
       <c r="C202">
-        <v>0.86599999999999999</v>
+        <v>0.871</v>
       </c>
       <c r="D202" t="s">
         <v>80</v>
@@ -5517,7 +5517,7 @@
         <v>100</v>
       </c>
       <c r="C203">
-        <v>0.86799999999999999</v>
+        <v>0.871</v>
       </c>
       <c r="D203" t="s">
         <v>80</v>
@@ -5531,7 +5531,7 @@
         <v>75</v>
       </c>
       <c r="C204">
-        <v>0.84899999999999998</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="D204" t="s">
         <v>80</v>
@@ -5545,7 +5545,7 @@
         <v>50</v>
       </c>
       <c r="C205">
-        <v>0.86799999999999999</v>
+        <v>0.877</v>
       </c>
       <c r="D205" t="s">
         <v>80</v>
@@ -5559,7 +5559,7 @@
         <v>100</v>
       </c>
       <c r="C206">
-        <v>0.86</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="D206" t="s">
         <v>80</v>
@@ -5573,7 +5573,7 @@
         <v>75</v>
       </c>
       <c r="C207">
-        <v>0.85799999999999998</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="D207" t="s">
         <v>80</v>
@@ -5587,7 +5587,7 @@
         <v>50</v>
       </c>
       <c r="C208">
-        <v>0.86299999999999999</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="D208" t="s">
         <v>80</v>
@@ -5601,7 +5601,7 @@
         <v>100</v>
       </c>
       <c r="C209">
-        <v>0.86799999999999999</v>
+        <v>0.877</v>
       </c>
       <c r="D209" t="s">
         <v>80</v>
@@ -5615,7 +5615,7 @@
         <v>75</v>
       </c>
       <c r="C210">
-        <v>0.86699999999999999</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="D210" t="s">
         <v>80</v>
@@ -5629,7 +5629,7 @@
         <v>50</v>
       </c>
       <c r="C211">
-        <v>0.86099999999999999</v>
+        <v>0.872</v>
       </c>
       <c r="D211" t="s">
         <v>80</v>
@@ -5643,7 +5643,7 @@
         <v>100</v>
       </c>
       <c r="C212">
-        <v>0.87</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="D212" t="s">
         <v>80</v>
@@ -5657,7 +5657,7 @@
         <v>75</v>
       </c>
       <c r="C213">
-        <v>0.88300000000000001</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="D213" t="s">
         <v>80</v>
@@ -5671,7 +5671,7 @@
         <v>50</v>
       </c>
       <c r="C214">
-        <v>0.89600000000000002</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="D214" t="s">
         <v>80</v>
@@ -5685,7 +5685,7 @@
         <v>100</v>
       </c>
       <c r="C215">
-        <v>0.88100000000000001</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="D215" t="s">
         <v>80</v>
@@ -5699,7 +5699,7 @@
         <v>75</v>
       </c>
       <c r="C216">
-        <v>0.89200000000000002</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="D216" t="s">
         <v>80</v>
@@ -5713,7 +5713,7 @@
         <v>50</v>
       </c>
       <c r="C217">
-        <v>0.90200000000000002</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="D217" t="s">
         <v>80</v>
@@ -5727,7 +5727,7 @@
         <v>100</v>
       </c>
       <c r="C218">
-        <v>0.88200000000000001</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="D218" t="s">
         <v>80</v>
@@ -5741,7 +5741,7 @@
         <v>75</v>
       </c>
       <c r="C219">
-        <v>0.88600000000000001</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="D219" t="s">
         <v>80</v>
@@ -5755,7 +5755,7 @@
         <v>50</v>
       </c>
       <c r="C220">
-        <v>0.90500000000000003</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="D220" t="s">
         <v>80</v>
@@ -5769,7 +5769,7 @@
         <v>100</v>
       </c>
       <c r="C221">
-        <v>0.88700000000000001</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="D221" t="s">
         <v>80</v>
@@ -5783,7 +5783,7 @@
         <v>75</v>
       </c>
       <c r="C222">
-        <v>0.89200000000000002</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="D222" t="s">
         <v>80</v>
@@ -5797,7 +5797,7 @@
         <v>50</v>
       </c>
       <c r="C223">
-        <v>0.90200000000000002</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="D223" t="s">
         <v>80</v>
@@ -5811,7 +5811,7 @@
         <v>100</v>
       </c>
       <c r="C224">
-        <v>0.88100000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="D224" t="s">
         <v>80</v>
@@ -5825,7 +5825,7 @@
         <v>75</v>
       </c>
       <c r="C225">
-        <v>0.88200000000000001</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="D225" t="s">
         <v>80</v>
@@ -5839,7 +5839,7 @@
         <v>50</v>
       </c>
       <c r="C226">
-        <v>0.90500000000000003</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="D226" t="s">
         <v>80</v>
@@ -5853,7 +5853,7 @@
         <v>100</v>
       </c>
       <c r="C227">
-        <v>0.88</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="D227" t="s">
         <v>80</v>
@@ -5867,7 +5867,7 @@
         <v>75</v>
       </c>
       <c r="C228">
-        <v>0.871</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="D228" t="s">
         <v>80</v>
@@ -5881,7 +5881,7 @@
         <v>50</v>
       </c>
       <c r="C229">
-        <v>0.86399999999999999</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="D229" t="s">
         <v>80</v>
@@ -5895,7 +5895,7 @@
         <v>100</v>
       </c>
       <c r="C230">
-        <v>0.88500000000000001</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="D230" t="s">
         <v>80</v>
@@ -5909,7 +5909,7 @@
         <v>75</v>
       </c>
       <c r="C231">
-        <v>0.879</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="D231" t="s">
         <v>80</v>
@@ -5923,7 +5923,7 @@
         <v>50</v>
       </c>
       <c r="C232">
-        <v>0.85699999999999998</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="D232" t="s">
         <v>80</v>
@@ -5937,7 +5937,7 @@
         <v>100</v>
       </c>
       <c r="C233">
-        <v>0.88400000000000001</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="D233" t="s">
         <v>80</v>
@@ -5951,7 +5951,7 @@
         <v>75</v>
       </c>
       <c r="C234">
-        <v>0.88100000000000001</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="D234" t="s">
         <v>80</v>
@@ -5965,7 +5965,7 @@
         <v>50</v>
       </c>
       <c r="C235">
-        <v>0.85099999999999998</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="D235" t="s">
         <v>80</v>
@@ -5979,7 +5979,7 @@
         <v>100</v>
       </c>
       <c r="C236">
-        <v>0.88600000000000001</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="D236" t="s">
         <v>80</v>
@@ -5993,7 +5993,7 @@
         <v>75</v>
       </c>
       <c r="C237">
-        <v>0.88500000000000001</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="D237" t="s">
         <v>80</v>
@@ -6007,7 +6007,7 @@
         <v>50</v>
       </c>
       <c r="C238">
-        <v>0.85399999999999998</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="D238" t="s">
         <v>80</v>
@@ -6021,7 +6021,7 @@
         <v>100</v>
       </c>
       <c r="C239">
-        <v>0.88200000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="D239" t="s">
         <v>80</v>
@@ -6035,7 +6035,7 @@
         <v>75</v>
       </c>
       <c r="C240">
-        <v>0.88500000000000001</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="D240" t="s">
         <v>80</v>
@@ -6063,7 +6063,7 @@
         <v>100</v>
       </c>
       <c r="C242">
-        <v>0.90900000000000003</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="D242" t="s">
         <v>80</v>
@@ -6077,7 +6077,7 @@
         <v>75</v>
       </c>
       <c r="C243">
-        <v>0.90300000000000002</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="D243" t="s">
         <v>80</v>
@@ -6091,7 +6091,7 @@
         <v>50</v>
       </c>
       <c r="C244">
-        <v>0.90100000000000002</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="D244" t="s">
         <v>80</v>
@@ -6105,7 +6105,7 @@
         <v>100</v>
       </c>
       <c r="C245">
-        <v>0.90400000000000003</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="D245" t="s">
         <v>80</v>
@@ -6119,7 +6119,7 @@
         <v>75</v>
       </c>
       <c r="C246">
-        <v>0.90400000000000003</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="D246" t="s">
         <v>80</v>
@@ -6133,7 +6133,7 @@
         <v>50</v>
       </c>
       <c r="C247">
-        <v>0.89200000000000002</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="D247" t="s">
         <v>80</v>
@@ -6147,7 +6147,7 @@
         <v>100</v>
       </c>
       <c r="C248">
-        <v>0.91100000000000003</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="D248" t="s">
         <v>80</v>
@@ -6161,7 +6161,7 @@
         <v>75</v>
       </c>
       <c r="C249">
-        <v>0.90400000000000003</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="D249" t="s">
         <v>80</v>
@@ -6175,7 +6175,7 @@
         <v>50</v>
       </c>
       <c r="C250">
-        <v>0.89</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="D250" t="s">
         <v>80</v>
@@ -6189,7 +6189,7 @@
         <v>100</v>
       </c>
       <c r="C251">
-        <v>0.90400000000000003</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="D251" t="s">
         <v>80</v>
@@ -6203,7 +6203,7 @@
         <v>75</v>
       </c>
       <c r="C252">
-        <v>0.90200000000000002</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="D252" t="s">
         <v>80</v>
@@ -6217,7 +6217,7 @@
         <v>50</v>
       </c>
       <c r="C253">
-        <v>0.89500000000000002</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="D253" t="s">
         <v>80</v>
@@ -6231,7 +6231,7 @@
         <v>100</v>
       </c>
       <c r="C254">
-        <v>0.90700000000000003</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="D254" t="s">
         <v>80</v>
@@ -6245,7 +6245,7 @@
         <v>75</v>
       </c>
       <c r="C255">
-        <v>0.90100000000000002</v>
+        <v>0.92</v>
       </c>
       <c r="D255" t="s">
         <v>80</v>
@@ -6259,7 +6259,7 @@
         <v>50</v>
       </c>
       <c r="C256">
-        <v>0.89700000000000002</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="D256" t="s">
         <v>80</v>
@@ -6273,7 +6273,7 @@
         <v>100</v>
       </c>
       <c r="C257">
-        <v>0.879</v>
+        <v>0.874</v>
       </c>
       <c r="D257" t="s">
         <v>80</v>
@@ -6287,7 +6287,7 @@
         <v>75</v>
       </c>
       <c r="C258">
-        <v>0.88100000000000001</v>
+        <v>0.876</v>
       </c>
       <c r="D258" t="s">
         <v>80</v>
@@ -6301,7 +6301,7 @@
         <v>50</v>
       </c>
       <c r="C259">
-        <v>0.88</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="D259" t="s">
         <v>80</v>
@@ -6315,7 +6315,7 @@
         <v>100</v>
       </c>
       <c r="C260">
-        <v>0.873</v>
+        <v>0.88</v>
       </c>
       <c r="D260" t="s">
         <v>80</v>
@@ -6329,7 +6329,7 @@
         <v>75</v>
       </c>
       <c r="C261">
-        <v>0.88200000000000001</v>
+        <v>0.878</v>
       </c>
       <c r="D261" t="s">
         <v>80</v>
@@ -6343,7 +6343,7 @@
         <v>50</v>
       </c>
       <c r="C262">
-        <v>0.88400000000000001</v>
+        <v>0.876</v>
       </c>
       <c r="D262" t="s">
         <v>80</v>
@@ -6357,7 +6357,7 @@
         <v>100</v>
       </c>
       <c r="C263">
-        <v>0.88</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="D263" t="s">
         <v>80</v>
@@ -6371,7 +6371,7 @@
         <v>75</v>
       </c>
       <c r="C264">
-        <v>0.88500000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="D264" t="s">
         <v>80</v>
@@ -6385,7 +6385,7 @@
         <v>50</v>
       </c>
       <c r="C265">
-        <v>0.88200000000000001</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="D265" t="s">
         <v>80</v>
@@ -6399,7 +6399,7 @@
         <v>100</v>
       </c>
       <c r="C266">
-        <v>0.877</v>
+        <v>0.872</v>
       </c>
       <c r="D266" t="s">
         <v>80</v>
@@ -6413,7 +6413,7 @@
         <v>75</v>
       </c>
       <c r="C267">
-        <v>0.875</v>
+        <v>0.88</v>
       </c>
       <c r="D267" t="s">
         <v>80</v>
@@ -6427,7 +6427,7 @@
         <v>50</v>
       </c>
       <c r="C268">
-        <v>0.88500000000000001</v>
+        <v>0.879</v>
       </c>
       <c r="D268" t="s">
         <v>80</v>
@@ -6441,7 +6441,7 @@
         <v>100</v>
       </c>
       <c r="C269">
-        <v>0.88</v>
+        <v>0.873</v>
       </c>
       <c r="D269" t="s">
         <v>80</v>
@@ -6455,7 +6455,7 @@
         <v>75</v>
       </c>
       <c r="C270">
-        <v>0.88500000000000001</v>
+        <v>0.876</v>
       </c>
       <c r="D270" t="s">
         <v>80</v>
@@ -6469,7 +6469,7 @@
         <v>50</v>
       </c>
       <c r="C271">
-        <v>0.89100000000000001</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="D271" t="s">
         <v>80</v>
@@ -6483,7 +6483,7 @@
         <v>100</v>
       </c>
       <c r="C272">
-        <v>0.88300000000000001</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="D272" t="s">
         <v>80</v>
@@ -6497,7 +6497,7 @@
         <v>75</v>
       </c>
       <c r="C273">
-        <v>0.88100000000000001</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="D273" t="s">
         <v>80</v>
@@ -6511,7 +6511,7 @@
         <v>50</v>
       </c>
       <c r="C274">
-        <v>0.876</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="D274" t="s">
         <v>80</v>
@@ -6525,7 +6525,7 @@
         <v>100</v>
       </c>
       <c r="C275">
-        <v>0.876</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="D275" t="s">
         <v>80</v>
@@ -6539,7 +6539,7 @@
         <v>75</v>
       </c>
       <c r="C276">
-        <v>0.88800000000000001</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="D276" t="s">
         <v>80</v>
@@ -6553,7 +6553,7 @@
         <v>50</v>
       </c>
       <c r="C277">
-        <v>0.877</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="D277" t="s">
         <v>80</v>
@@ -6567,7 +6567,7 @@
         <v>100</v>
       </c>
       <c r="C278">
-        <v>0.874</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="D278" t="s">
         <v>80</v>
@@ -6581,7 +6581,7 @@
         <v>75</v>
       </c>
       <c r="C279">
-        <v>0.88200000000000001</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="D279" t="s">
         <v>80</v>
@@ -6595,7 +6595,7 @@
         <v>50</v>
       </c>
       <c r="C280">
-        <v>0.876</v>
+        <v>0.89</v>
       </c>
       <c r="D280" t="s">
         <v>80</v>
@@ -6609,7 +6609,7 @@
         <v>100</v>
       </c>
       <c r="C281">
-        <v>0.877</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="D281" t="s">
         <v>80</v>
@@ -6623,7 +6623,7 @@
         <v>75</v>
       </c>
       <c r="C282">
-        <v>0.877</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="D282" t="s">
         <v>80</v>
@@ -6637,7 +6637,7 @@
         <v>50</v>
       </c>
       <c r="C283">
-        <v>0.876</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="D283" t="s">
         <v>80</v>
@@ -6651,7 +6651,7 @@
         <v>100</v>
       </c>
       <c r="C284">
-        <v>0.88500000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="D284" t="s">
         <v>80</v>
@@ -6665,7 +6665,7 @@
         <v>75</v>
       </c>
       <c r="C285">
-        <v>0.878</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="D285" t="s">
         <v>80</v>
@@ -6679,7 +6679,7 @@
         <v>50</v>
       </c>
       <c r="C286">
-        <v>0.878</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="D286" t="s">
         <v>80</v>
@@ -6693,7 +6693,7 @@
         <v>100</v>
       </c>
       <c r="C287">
-        <v>0.90300000000000002</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="D287" t="s">
         <v>80</v>
@@ -6707,7 +6707,7 @@
         <v>75</v>
       </c>
       <c r="C288">
-        <v>0.89</v>
+        <v>0.878</v>
       </c>
       <c r="D288" t="s">
         <v>80</v>
@@ -6721,7 +6721,7 @@
         <v>50</v>
       </c>
       <c r="C289">
-        <v>0.89100000000000001</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="D289" t="s">
         <v>80</v>
@@ -6735,7 +6735,7 @@
         <v>100</v>
       </c>
       <c r="C290">
-        <v>0.90100000000000002</v>
+        <v>0.872</v>
       </c>
       <c r="D290" t="s">
         <v>80</v>
@@ -6749,7 +6749,7 @@
         <v>75</v>
       </c>
       <c r="C291">
-        <v>0.90500000000000003</v>
+        <v>0.875</v>
       </c>
       <c r="D291" t="s">
         <v>80</v>
@@ -6763,7 +6763,7 @@
         <v>50</v>
       </c>
       <c r="C292">
-        <v>0.89200000000000002</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="D292" t="s">
         <v>80</v>
@@ -6777,7 +6777,7 @@
         <v>100</v>
       </c>
       <c r="C293">
-        <v>0.88800000000000001</v>
+        <v>0.877</v>
       </c>
       <c r="D293" t="s">
         <v>80</v>
@@ -6791,7 +6791,7 @@
         <v>75</v>
       </c>
       <c r="C294">
-        <v>0.90100000000000002</v>
+        <v>0.875</v>
       </c>
       <c r="D294" t="s">
         <v>80</v>
@@ -6805,7 +6805,7 @@
         <v>50</v>
       </c>
       <c r="C295">
-        <v>0.90700000000000003</v>
+        <v>0.871</v>
       </c>
       <c r="D295" t="s">
         <v>80</v>
@@ -6819,7 +6819,7 @@
         <v>100</v>
       </c>
       <c r="C296">
-        <v>0.89200000000000002</v>
+        <v>0.87</v>
       </c>
       <c r="D296" t="s">
         <v>80</v>
@@ -6833,7 +6833,7 @@
         <v>75</v>
       </c>
       <c r="C297">
-        <v>0.89500000000000002</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="D297" t="s">
         <v>80</v>
@@ -6847,7 +6847,7 @@
         <v>50</v>
       </c>
       <c r="C298">
-        <v>0.90500000000000003</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="D298" t="s">
         <v>80</v>
@@ -6861,7 +6861,7 @@
         <v>100</v>
       </c>
       <c r="C299">
-        <v>0.91100000000000003</v>
+        <v>0.875</v>
       </c>
       <c r="D299" t="s">
         <v>80</v>
@@ -6875,7 +6875,7 @@
         <v>75</v>
       </c>
       <c r="C300">
-        <v>0.89100000000000001</v>
+        <v>0.873</v>
       </c>
       <c r="D300" t="s">
         <v>80</v>
@@ -6889,7 +6889,7 @@
         <v>50</v>
       </c>
       <c r="C301">
-        <v>0.90600000000000003</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="D301" t="s">
         <v>80</v>
@@ -6903,7 +6903,7 @@
         <v>100</v>
       </c>
       <c r="C302">
-        <v>0.90200000000000002</v>
+        <v>0.878</v>
       </c>
       <c r="D302" t="s">
         <v>80</v>
@@ -6917,7 +6917,7 @@
         <v>75</v>
       </c>
       <c r="C303">
-        <v>0.90200000000000002</v>
+        <v>0.89</v>
       </c>
       <c r="D303" t="s">
         <v>80</v>
@@ -6931,7 +6931,7 @@
         <v>50</v>
       </c>
       <c r="C304">
-        <v>0.90200000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="D304" t="s">
         <v>80</v>
@@ -6945,7 +6945,7 @@
         <v>100</v>
       </c>
       <c r="C305">
-        <v>0.90500000000000003</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="D305" t="s">
         <v>80</v>
@@ -6959,7 +6959,7 @@
         <v>75</v>
       </c>
       <c r="C306">
-        <v>0.89800000000000002</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="D306" t="s">
         <v>80</v>
@@ -6973,7 +6973,7 @@
         <v>50</v>
       </c>
       <c r="C307">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="D307" t="s">
         <v>80</v>
@@ -6987,7 +6987,7 @@
         <v>100</v>
       </c>
       <c r="C308">
-        <v>0.89900000000000002</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="D308" t="s">
         <v>80</v>
@@ -7001,7 +7001,7 @@
         <v>75</v>
       </c>
       <c r="C309">
-        <v>0.90300000000000002</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="D309" t="s">
         <v>80</v>
@@ -7015,7 +7015,7 @@
         <v>50</v>
       </c>
       <c r="C310">
-        <v>0.90900000000000003</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="D310" t="s">
         <v>80</v>
@@ -7029,7 +7029,7 @@
         <v>100</v>
       </c>
       <c r="C311">
-        <v>0.89600000000000002</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="D311" t="s">
         <v>80</v>
@@ -7043,7 +7043,7 @@
         <v>75</v>
       </c>
       <c r="C312">
-        <v>0.91300000000000003</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="D312" t="s">
         <v>80</v>
@@ -7057,7 +7057,7 @@
         <v>50</v>
       </c>
       <c r="C313">
-        <v>0.91</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="D313" t="s">
         <v>80</v>
@@ -7071,7 +7071,7 @@
         <v>100</v>
       </c>
       <c r="C314">
-        <v>0.90500000000000003</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="D314" t="s">
         <v>80</v>
@@ -7085,7 +7085,7 @@
         <v>75</v>
       </c>
       <c r="C315">
-        <v>0.91200000000000003</v>
+        <v>0.876</v>
       </c>
       <c r="D315" t="s">
         <v>80</v>
@@ -7099,7 +7099,7 @@
         <v>50</v>
       </c>
       <c r="C316">
-        <v>0.90600000000000003</v>
+        <v>0.879</v>
       </c>
       <c r="D316" t="s">
         <v>80</v>
@@ -7113,7 +7113,7 @@
         <v>100</v>
       </c>
       <c r="C317">
-        <v>0.89700000000000002</v>
+        <v>0.876</v>
       </c>
       <c r="D317" t="s">
         <v>80</v>
@@ -7127,7 +7127,7 @@
         <v>75</v>
       </c>
       <c r="C318">
-        <v>0.90400000000000003</v>
+        <v>0.88</v>
       </c>
       <c r="D318" t="s">
         <v>80</v>
@@ -7141,7 +7141,7 @@
         <v>50</v>
       </c>
       <c r="C319">
-        <v>0.90500000000000003</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="D319" t="s">
         <v>80</v>
@@ -7155,7 +7155,7 @@
         <v>100</v>
       </c>
       <c r="C320">
-        <v>0.89200000000000002</v>
+        <v>0.876</v>
       </c>
       <c r="D320" t="s">
         <v>80</v>
@@ -7169,7 +7169,7 @@
         <v>75</v>
       </c>
       <c r="C321">
-        <v>0.90300000000000002</v>
+        <v>0.879</v>
       </c>
       <c r="D321" t="s">
         <v>80</v>
@@ -7183,7 +7183,7 @@
         <v>50</v>
       </c>
       <c r="C322">
-        <v>0.90100000000000002</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="D322" t="s">
         <v>80</v>
@@ -7197,7 +7197,7 @@
         <v>100</v>
       </c>
       <c r="C323">
-        <v>0.89600000000000002</v>
+        <v>0.873</v>
       </c>
       <c r="D323" t="s">
         <v>80</v>
@@ -7211,7 +7211,7 @@
         <v>75</v>
       </c>
       <c r="C324">
-        <v>0.89400000000000002</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="D324" t="s">
         <v>80</v>
@@ -7225,7 +7225,7 @@
         <v>50</v>
       </c>
       <c r="C325">
-        <v>0.89900000000000002</v>
+        <v>0.87</v>
       </c>
       <c r="D325" t="s">
         <v>80</v>
@@ -7239,7 +7239,7 @@
         <v>100</v>
       </c>
       <c r="C326">
-        <v>0.89600000000000002</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="D326" t="s">
         <v>80</v>
@@ -7253,7 +7253,7 @@
         <v>75</v>
       </c>
       <c r="C327">
-        <v>0.9</v>
+        <v>0.877</v>
       </c>
       <c r="D327" t="s">
         <v>80</v>
@@ -7267,7 +7267,7 @@
         <v>50</v>
       </c>
       <c r="C328">
-        <v>0.90700000000000003</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="D328" t="s">
         <v>80</v>
@@ -7281,7 +7281,7 @@
         <v>100</v>
       </c>
       <c r="C329">
-        <v>0.90500000000000003</v>
+        <v>0.88</v>
       </c>
       <c r="D329" t="s">
         <v>80</v>
@@ -7295,7 +7295,7 @@
         <v>75</v>
       </c>
       <c r="C330">
-        <v>0.90500000000000003</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="D330" t="s">
         <v>80</v>
@@ -7309,7 +7309,7 @@
         <v>50</v>
       </c>
       <c r="C331">
-        <v>0.90800000000000003</v>
+        <v>0.878</v>
       </c>
       <c r="D331" t="s">
         <v>80</v>
